--- a/raw_data/20200818_saline/20200818_Sensor0_Test_95.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor0_Test_95.xlsx
@@ -1,840 +1,1256 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFE75870-54F5-470A-B152-17C805AC9FFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>84603.236767</v>
+        <v>84603.236766999995</v>
       </c>
       <c r="B2" s="1">
         <v>23.500899</v>
       </c>
       <c r="C2" s="1">
-        <v>910.577000</v>
+        <v>910.577</v>
       </c>
       <c r="D2" s="1">
-        <v>-196.419000</v>
+        <v>-196.41900000000001</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>84613.308989</v>
+        <v>84613.308988999997</v>
       </c>
       <c r="G2" s="1">
-        <v>23.503697</v>
+        <v>23.503696999999999</v>
       </c>
       <c r="H2" s="1">
-        <v>927.744000</v>
+        <v>927.74400000000003</v>
       </c>
       <c r="I2" s="1">
-        <v>-166.632000</v>
+        <v>-166.63200000000001</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>84623.773584</v>
+        <v>84623.773583999995</v>
       </c>
       <c r="L2" s="1">
-        <v>23.506604</v>
+        <v>23.506603999999999</v>
       </c>
       <c r="M2" s="1">
-        <v>950.036000</v>
+        <v>950.03599999999994</v>
       </c>
       <c r="N2" s="1">
-        <v>-119.815000</v>
+        <v>-119.815</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>84633.948551</v>
+        <v>84633.948550999994</v>
       </c>
       <c r="Q2" s="1">
-        <v>23.509430</v>
+        <v>23.509429999999998</v>
       </c>
       <c r="R2" s="1">
-        <v>956.736000</v>
+        <v>956.73599999999999</v>
       </c>
       <c r="S2" s="1">
-        <v>-104.507000</v>
+        <v>-104.50700000000001</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>84644.516771</v>
+        <v>84644.516770999995</v>
       </c>
       <c r="V2" s="1">
         <v>23.512366</v>
       </c>
       <c r="W2" s="1">
-        <v>963.314000</v>
+        <v>963.31399999999996</v>
       </c>
       <c r="X2" s="1">
-        <v>-90.634700</v>
+        <v>-90.634699999999995</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>84654.983349</v>
+        <v>84654.983349000002</v>
       </c>
       <c r="AA2" s="1">
-        <v>23.515273</v>
+        <v>23.515273000000001</v>
       </c>
       <c r="AB2" s="1">
-        <v>970.817000</v>
+        <v>970.81700000000001</v>
       </c>
       <c r="AC2" s="1">
-        <v>-81.015900</v>
+        <v>-81.015900000000002</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>84666.234622</v>
+        <v>84666.234622000004</v>
       </c>
       <c r="AF2" s="1">
-        <v>23.518399</v>
+        <v>23.518398999999999</v>
       </c>
       <c r="AG2" s="1">
-        <v>975.974000</v>
+        <v>975.97400000000005</v>
       </c>
       <c r="AH2" s="1">
-        <v>-80.361000</v>
+        <v>-80.361000000000004</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>84676.688777</v>
+        <v>84676.688777000003</v>
       </c>
       <c r="AK2" s="1">
-        <v>23.521302</v>
+        <v>23.521301999999999</v>
       </c>
       <c r="AL2" s="1">
-        <v>983.988000</v>
+        <v>983.98800000000006</v>
       </c>
       <c r="AM2" s="1">
-        <v>-87.834400</v>
+        <v>-87.834400000000002</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>84687.208925</v>
+        <v>84687.208924999999</v>
       </c>
       <c r="AP2" s="1">
-        <v>23.524225</v>
+        <v>23.524225000000001</v>
       </c>
       <c r="AQ2" s="1">
-        <v>993.229000</v>
+        <v>993.22900000000004</v>
       </c>
       <c r="AR2" s="1">
-        <v>-102.507000</v>
+        <v>-102.50700000000001</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>84698.206718</v>
+        <v>84698.206718000001</v>
       </c>
       <c r="AU2" s="1">
-        <v>23.527280</v>
+        <v>23.527280000000001</v>
       </c>
       <c r="AV2" s="1">
-        <v>1004.590000</v>
+        <v>1004.59</v>
       </c>
       <c r="AW2" s="1">
-        <v>-123.817000</v>
+        <v>-123.81699999999999</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>84709.390548</v>
+        <v>84709.390547999996</v>
       </c>
       <c r="AZ2" s="1">
         <v>23.530386</v>
       </c>
       <c r="BA2" s="1">
-        <v>1014.220000</v>
+        <v>1014.22</v>
       </c>
       <c r="BB2" s="1">
-        <v>-142.409000</v>
+        <v>-142.40899999999999</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>84720.254385</v>
+        <v>84720.254384999993</v>
       </c>
       <c r="BE2" s="1">
-        <v>23.533404</v>
+        <v>23.533404000000001</v>
       </c>
       <c r="BF2" s="1">
-        <v>1059.530000</v>
+        <v>1059.53</v>
       </c>
       <c r="BG2" s="1">
-        <v>-226.657000</v>
+        <v>-226.65700000000001</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>84731.261612</v>
+        <v>84731.261612000002</v>
       </c>
       <c r="BJ2" s="1">
         <v>23.536462</v>
       </c>
       <c r="BK2" s="1">
-        <v>1139.050000</v>
+        <v>1139.05</v>
       </c>
       <c r="BL2" s="1">
-        <v>-361.461000</v>
+        <v>-361.46100000000001</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>84742.429523</v>
+        <v>84742.429522999999</v>
       </c>
       <c r="BO2" s="1">
-        <v>23.539564</v>
+        <v>23.539563999999999</v>
       </c>
       <c r="BP2" s="1">
-        <v>1270.240000</v>
+        <v>1270.24</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-569.033000</v>
+        <v>-569.03300000000002</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>84752.801364</v>
+        <v>84752.801363999999</v>
       </c>
       <c r="BT2" s="1">
-        <v>23.542445</v>
+        <v>23.542445000000001</v>
       </c>
       <c r="BU2" s="1">
-        <v>1417.180000</v>
+        <v>1417.18</v>
       </c>
       <c r="BV2" s="1">
-        <v>-790.645000</v>
+        <v>-790.64499999999998</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>84764.349750</v>
+        <v>84764.349749999994</v>
       </c>
       <c r="BY2" s="1">
-        <v>23.545653</v>
+        <v>23.545653000000001</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1577.220000</v>
+        <v>1577.22</v>
       </c>
       <c r="CA2" s="1">
-        <v>-1021.040000</v>
+        <v>-1021.04</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>84775.196231</v>
+        <v>84775.196230999994</v>
       </c>
       <c r="CD2" s="1">
-        <v>23.548666</v>
+        <v>23.548666000000001</v>
       </c>
       <c r="CE2" s="1">
-        <v>1980.010000</v>
+        <v>1980.01</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1561.660000</v>
+        <v>-1561.66</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>84603.617194</v>
+        <v>84603.617194000006</v>
       </c>
       <c r="B3" s="1">
-        <v>23.501005</v>
+        <v>23.501004999999999</v>
       </c>
       <c r="C3" s="1">
-        <v>910.638000</v>
+        <v>910.63800000000003</v>
       </c>
       <c r="D3" s="1">
-        <v>-196.479000</v>
+        <v>-196.47900000000001</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>84613.676028</v>
+        <v>84613.676028000002</v>
       </c>
       <c r="G3" s="1">
-        <v>23.503799</v>
+        <v>23.503799000000001</v>
       </c>
       <c r="H3" s="1">
-        <v>927.598000</v>
+        <v>927.59799999999996</v>
       </c>
       <c r="I3" s="1">
-        <v>-166.858000</v>
+        <v>-166.858</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>84624.159507</v>
+        <v>84624.159507000004</v>
       </c>
       <c r="L3" s="1">
-        <v>23.506711</v>
+        <v>23.506710999999999</v>
       </c>
       <c r="M3" s="1">
-        <v>950.051000</v>
+        <v>950.05100000000004</v>
       </c>
       <c r="N3" s="1">
-        <v>-119.840000</v>
+        <v>-119.84</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>84634.330929</v>
+        <v>84634.330929000003</v>
       </c>
       <c r="Q3" s="1">
-        <v>23.509536</v>
+        <v>23.509536000000001</v>
       </c>
       <c r="R3" s="1">
-        <v>956.679000</v>
+        <v>956.67899999999997</v>
       </c>
       <c r="S3" s="1">
-        <v>-104.514000</v>
+        <v>-104.514</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
         <v>84644.897203</v>
       </c>
       <c r="V3" s="1">
-        <v>23.512471</v>
+        <v>23.512471000000001</v>
       </c>
       <c r="W3" s="1">
-        <v>963.308000</v>
+        <v>963.30799999999999</v>
       </c>
       <c r="X3" s="1">
-        <v>-90.801700</v>
+        <v>-90.801699999999997</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>84655.714949</v>
+        <v>84655.714949000001</v>
       </c>
       <c r="AA3" s="1">
         <v>23.515476</v>
       </c>
       <c r="AB3" s="1">
-        <v>970.866000</v>
+        <v>970.86599999999999</v>
       </c>
       <c r="AC3" s="1">
-        <v>-81.041500</v>
+        <v>-81.041499999999999</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>84666.607094</v>
+        <v>84666.607094000006</v>
       </c>
       <c r="AF3" s="1">
-        <v>23.518502</v>
+        <v>23.518502000000002</v>
       </c>
       <c r="AG3" s="1">
-        <v>975.949000</v>
+        <v>975.94899999999996</v>
       </c>
       <c r="AH3" s="1">
-        <v>-80.360400</v>
+        <v>-80.360399999999998</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
         <v>84677.030025</v>
@@ -843,225 +1259,225 @@
         <v>23.521397</v>
       </c>
       <c r="AL3" s="1">
-        <v>984.003000</v>
+        <v>984.00300000000004</v>
       </c>
       <c r="AM3" s="1">
-        <v>-87.831900</v>
+        <v>-87.831900000000005</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>84687.585387</v>
+        <v>84687.585386999999</v>
       </c>
       <c r="AP3" s="1">
-        <v>23.524329</v>
+        <v>23.524329000000002</v>
       </c>
       <c r="AQ3" s="1">
-        <v>993.228000</v>
+        <v>993.22799999999995</v>
       </c>
       <c r="AR3" s="1">
-        <v>-102.507000</v>
+        <v>-102.50700000000001</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>84698.624846</v>
+        <v>84698.624846000006</v>
       </c>
       <c r="AU3" s="1">
         <v>23.527396</v>
       </c>
       <c r="AV3" s="1">
-        <v>1004.610000</v>
+        <v>1004.61</v>
       </c>
       <c r="AW3" s="1">
-        <v>-123.810000</v>
+        <v>-123.81</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>84710.064573</v>
+        <v>84710.064572999996</v>
       </c>
       <c r="AZ3" s="1">
         <v>23.530573</v>
       </c>
       <c r="BA3" s="1">
-        <v>1014.220000</v>
+        <v>1014.22</v>
       </c>
       <c r="BB3" s="1">
-        <v>-142.411000</v>
+        <v>-142.411</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>84720.680447</v>
+        <v>84720.680447000006</v>
       </c>
       <c r="BE3" s="1">
-        <v>23.533522</v>
+        <v>23.533522000000001</v>
       </c>
       <c r="BF3" s="1">
-        <v>1059.530000</v>
+        <v>1059.53</v>
       </c>
       <c r="BG3" s="1">
-        <v>-226.662000</v>
+        <v>-226.66200000000001</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>84731.717462</v>
+        <v>84731.717462000001</v>
       </c>
       <c r="BJ3" s="1">
-        <v>23.536588</v>
+        <v>23.536587999999998</v>
       </c>
       <c r="BK3" s="1">
-        <v>1139.080000</v>
+        <v>1139.08</v>
       </c>
       <c r="BL3" s="1">
-        <v>-361.464000</v>
+        <v>-361.464</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>84742.861058</v>
+        <v>84742.861057999995</v>
       </c>
       <c r="BO3" s="1">
-        <v>23.539684</v>
+        <v>23.539684000000001</v>
       </c>
       <c r="BP3" s="1">
-        <v>1270.280000</v>
+        <v>1270.28</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-569.087000</v>
+        <v>-569.08699999999999</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>84753.220026</v>
+        <v>84753.220025999995</v>
       </c>
       <c r="BT3" s="1">
-        <v>23.542561</v>
+        <v>23.542560999999999</v>
       </c>
       <c r="BU3" s="1">
-        <v>1417.070000</v>
+        <v>1417.07</v>
       </c>
       <c r="BV3" s="1">
-        <v>-790.757000</v>
+        <v>-790.75699999999995</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>84764.813477</v>
+        <v>84764.813477000003</v>
       </c>
       <c r="BY3" s="1">
-        <v>23.545782</v>
+        <v>23.545781999999999</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1577.370000</v>
+        <v>1577.37</v>
       </c>
       <c r="CA3" s="1">
-        <v>-1021.100000</v>
+        <v>-1021.1</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>84775.765142</v>
+        <v>84775.765142000004</v>
       </c>
       <c r="CD3" s="1">
         <v>23.548824</v>
       </c>
       <c r="CE3" s="1">
-        <v>1980.210000</v>
+        <v>1980.21</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1559.140000</v>
+        <v>-1559.14</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>84603.960891</v>
+        <v>84603.960890999995</v>
       </c>
       <c r="B4" s="1">
-        <v>23.501100</v>
+        <v>23.501100000000001</v>
       </c>
       <c r="C4" s="1">
-        <v>910.637000</v>
+        <v>910.63699999999994</v>
       </c>
       <c r="D4" s="1">
-        <v>-196.446000</v>
+        <v>-196.446</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>84614.020290</v>
+        <v>84614.02029</v>
       </c>
       <c r="G4" s="1">
         <v>23.503895</v>
       </c>
       <c r="H4" s="1">
-        <v>927.551000</v>
+        <v>927.55100000000004</v>
       </c>
       <c r="I4" s="1">
-        <v>-166.595000</v>
+        <v>-166.595</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>84624.503235</v>
+        <v>84624.503234999996</v>
       </c>
       <c r="L4" s="1">
-        <v>23.506806</v>
+        <v>23.506806000000001</v>
       </c>
       <c r="M4" s="1">
-        <v>950.005000</v>
+        <v>950.005</v>
       </c>
       <c r="N4" s="1">
-        <v>-119.757000</v>
+        <v>-119.75700000000001</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>84635.027808</v>
+        <v>84635.027807999999</v>
       </c>
       <c r="Q4" s="1">
-        <v>23.509730</v>
+        <v>23.509730000000001</v>
       </c>
       <c r="R4" s="1">
-        <v>956.643000</v>
+        <v>956.64300000000003</v>
       </c>
       <c r="S4" s="1">
-        <v>-104.540000</v>
+        <v>-104.54</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>84645.649176</v>
+        <v>84645.649176000006</v>
       </c>
       <c r="V4" s="1">
-        <v>23.512680</v>
+        <v>23.51268</v>
       </c>
       <c r="W4" s="1">
-        <v>963.368000</v>
+        <v>963.36800000000005</v>
       </c>
       <c r="X4" s="1">
-        <v>-90.704300</v>
+        <v>-90.704300000000003</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
         <v>84656.064134</v>
@@ -1070,904 +1486,904 @@
         <v>23.515573</v>
       </c>
       <c r="AB4" s="1">
-        <v>970.796000</v>
+        <v>970.79600000000005</v>
       </c>
       <c r="AC4" s="1">
-        <v>-80.969000</v>
+        <v>-80.968999999999994</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>84666.959254</v>
+        <v>84666.959254000001</v>
       </c>
       <c r="AF4" s="1">
-        <v>23.518600</v>
+        <v>23.518599999999999</v>
       </c>
       <c r="AG4" s="1">
-        <v>975.952000</v>
+        <v>975.952</v>
       </c>
       <c r="AH4" s="1">
-        <v>-80.400100</v>
+        <v>-80.400099999999995</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>84677.379740</v>
+        <v>84677.379740000004</v>
       </c>
       <c r="AK4" s="1">
-        <v>23.521494</v>
+        <v>23.521494000000001</v>
       </c>
       <c r="AL4" s="1">
-        <v>984.015000</v>
+        <v>984.01499999999999</v>
       </c>
       <c r="AM4" s="1">
-        <v>-87.835600</v>
+        <v>-87.835599999999999</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>84688.256970</v>
+        <v>84688.256970000002</v>
       </c>
       <c r="AP4" s="1">
-        <v>23.524516</v>
+        <v>23.524515999999998</v>
       </c>
       <c r="AQ4" s="1">
-        <v>993.215000</v>
+        <v>993.21500000000003</v>
       </c>
       <c r="AR4" s="1">
-        <v>-102.496000</v>
+        <v>-102.496</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>84699.300892</v>
+        <v>84699.300891999999</v>
       </c>
       <c r="AU4" s="1">
-        <v>23.527584</v>
+        <v>23.527584000000001</v>
       </c>
       <c r="AV4" s="1">
-        <v>1004.600000</v>
+        <v>1004.6</v>
       </c>
       <c r="AW4" s="1">
-        <v>-123.801000</v>
+        <v>-123.801</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>84710.478237</v>
+        <v>84710.478237000003</v>
       </c>
       <c r="AZ4" s="1">
-        <v>23.530688</v>
+        <v>23.530688000000001</v>
       </c>
       <c r="BA4" s="1">
-        <v>1014.220000</v>
+        <v>1014.22</v>
       </c>
       <c r="BB4" s="1">
-        <v>-142.424000</v>
+        <v>-142.42400000000001</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>84721.039551</v>
+        <v>84721.039550999994</v>
       </c>
       <c r="BE4" s="1">
-        <v>23.533622</v>
+        <v>23.533622000000001</v>
       </c>
       <c r="BF4" s="1">
-        <v>1059.520000</v>
+        <v>1059.52</v>
       </c>
       <c r="BG4" s="1">
-        <v>-226.647000</v>
+        <v>-226.64699999999999</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>84732.116208</v>
+        <v>84732.116208000007</v>
       </c>
       <c r="BJ4" s="1">
-        <v>23.536699</v>
+        <v>23.536698999999999</v>
       </c>
       <c r="BK4" s="1">
-        <v>1139.050000</v>
+        <v>1139.05</v>
       </c>
       <c r="BL4" s="1">
-        <v>-361.484000</v>
+        <v>-361.48399999999998</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>84743.256355</v>
+        <v>84743.256355000005</v>
       </c>
       <c r="BO4" s="1">
         <v>23.539793</v>
       </c>
       <c r="BP4" s="1">
-        <v>1270.240000</v>
+        <v>1270.24</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-569.084000</v>
+        <v>-569.08399999999995</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>84753.659443</v>
+        <v>84753.659442999997</v>
       </c>
       <c r="BT4" s="1">
         <v>23.542683</v>
       </c>
       <c r="BU4" s="1">
-        <v>1416.980000</v>
+        <v>1416.98</v>
       </c>
       <c r="BV4" s="1">
-        <v>-790.821000</v>
+        <v>-790.82100000000003</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>84765.257440</v>
+        <v>84765.257440000001</v>
       </c>
       <c r="BY4" s="1">
-        <v>23.545905</v>
+        <v>23.545905000000001</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1577.220000</v>
+        <v>1577.22</v>
       </c>
       <c r="CA4" s="1">
-        <v>-1020.960000</v>
+        <v>-1020.96</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>84776.303301</v>
+        <v>84776.303301000007</v>
       </c>
       <c r="CD4" s="1">
         <v>23.548973</v>
       </c>
       <c r="CE4" s="1">
-        <v>1979.120000</v>
+        <v>1979.12</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1560.720000</v>
+        <v>-1560.72</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>84604.300154</v>
+        <v>84604.300153999997</v>
       </c>
       <c r="B5" s="1">
-        <v>23.501194</v>
+        <v>23.501194000000002</v>
       </c>
       <c r="C5" s="1">
-        <v>910.455000</v>
+        <v>910.45500000000004</v>
       </c>
       <c r="D5" s="1">
-        <v>-196.402000</v>
+        <v>-196.40199999999999</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>84614.709195</v>
+        <v>84614.709195000003</v>
       </c>
       <c r="G5" s="1">
-        <v>23.504086</v>
+        <v>23.504086000000001</v>
       </c>
       <c r="H5" s="1">
-        <v>927.685000</v>
+        <v>927.68499999999995</v>
       </c>
       <c r="I5" s="1">
-        <v>-166.588000</v>
+        <v>-166.58799999999999</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>84625.193629</v>
+        <v>84625.193629000001</v>
       </c>
       <c r="L5" s="1">
-        <v>23.506998</v>
+        <v>23.506997999999999</v>
       </c>
       <c r="M5" s="1">
-        <v>949.941000</v>
+        <v>949.94100000000003</v>
       </c>
       <c r="N5" s="1">
-        <v>-119.849000</v>
+        <v>-119.849</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>84635.378015</v>
+        <v>84635.378014999995</v>
       </c>
       <c r="Q5" s="1">
-        <v>23.509827</v>
+        <v>23.509827000000001</v>
       </c>
       <c r="R5" s="1">
-        <v>956.621000</v>
+        <v>956.62099999999998</v>
       </c>
       <c r="S5" s="1">
-        <v>-104.527000</v>
+        <v>-104.527</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>84645.951201</v>
+        <v>84645.951201000003</v>
       </c>
       <c r="V5" s="1">
-        <v>23.512764</v>
+        <v>23.512764000000001</v>
       </c>
       <c r="W5" s="1">
-        <v>963.432000</v>
+        <v>963.43200000000002</v>
       </c>
       <c r="X5" s="1">
-        <v>-90.783900</v>
+        <v>-90.783900000000003</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>84656.412323</v>
+        <v>84656.412322999997</v>
       </c>
       <c r="AA5" s="1">
-        <v>23.515670</v>
+        <v>23.51567</v>
       </c>
       <c r="AB5" s="1">
-        <v>970.858000</v>
+        <v>970.85799999999995</v>
       </c>
       <c r="AC5" s="1">
-        <v>-80.907500</v>
+        <v>-80.907499999999999</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>84667.626903</v>
+        <v>84667.626902999997</v>
       </c>
       <c r="AF5" s="1">
-        <v>23.518785</v>
+        <v>23.518785000000001</v>
       </c>
       <c r="AG5" s="1">
-        <v>975.963000</v>
+        <v>975.96299999999997</v>
       </c>
       <c r="AH5" s="1">
-        <v>-80.368800</v>
+        <v>-80.368799999999993</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>84678.046823</v>
+        <v>84678.046822999997</v>
       </c>
       <c r="AK5" s="1">
-        <v>23.521680</v>
+        <v>23.52168</v>
       </c>
       <c r="AL5" s="1">
-        <v>984.002000</v>
+        <v>984.00199999999995</v>
       </c>
       <c r="AM5" s="1">
-        <v>-87.827800</v>
+        <v>-87.827799999999996</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>84688.692953</v>
+        <v>84688.692953000005</v>
       </c>
       <c r="AP5" s="1">
-        <v>23.524637</v>
+        <v>23.524636999999998</v>
       </c>
       <c r="AQ5" s="1">
-        <v>993.229000</v>
+        <v>993.22900000000004</v>
       </c>
       <c r="AR5" s="1">
-        <v>-102.494000</v>
+        <v>-102.494</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>84699.747290</v>
+        <v>84699.747289999999</v>
       </c>
       <c r="AU5" s="1">
-        <v>23.527708</v>
+        <v>23.527708000000001</v>
       </c>
       <c r="AV5" s="1">
-        <v>1004.590000</v>
+        <v>1004.59</v>
       </c>
       <c r="AW5" s="1">
-        <v>-123.813000</v>
+        <v>-123.813</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>84710.851724</v>
+        <v>84710.851723999993</v>
       </c>
       <c r="AZ5" s="1">
-        <v>23.530792</v>
+        <v>23.530792000000002</v>
       </c>
       <c r="BA5" s="1">
-        <v>1014.220000</v>
+        <v>1014.22</v>
       </c>
       <c r="BB5" s="1">
-        <v>-142.420000</v>
+        <v>-142.41999999999999</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>84721.404645</v>
+        <v>84721.404645000002</v>
       </c>
       <c r="BE5" s="1">
-        <v>23.533724</v>
+        <v>23.533723999999999</v>
       </c>
       <c r="BF5" s="1">
-        <v>1059.510000</v>
+        <v>1059.51</v>
       </c>
       <c r="BG5" s="1">
-        <v>-226.657000</v>
+        <v>-226.65700000000001</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>84732.490687</v>
+        <v>84732.490686999998</v>
       </c>
       <c r="BJ5" s="1">
-        <v>23.536803</v>
+        <v>23.536802999999999</v>
       </c>
       <c r="BK5" s="1">
-        <v>1139.080000</v>
+        <v>1139.08</v>
       </c>
       <c r="BL5" s="1">
-        <v>-361.463000</v>
+        <v>-361.46300000000002</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>84743.679440</v>
+        <v>84743.679440000007</v>
       </c>
       <c r="BO5" s="1">
         <v>23.539911</v>
       </c>
       <c r="BP5" s="1">
-        <v>1270.250000</v>
+        <v>1270.25</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-569.091000</v>
+        <v>-569.09100000000001</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>84754.468420</v>
+        <v>84754.468420000005</v>
       </c>
       <c r="BT5" s="1">
-        <v>23.542908</v>
+        <v>23.542908000000001</v>
       </c>
       <c r="BU5" s="1">
-        <v>1416.890000</v>
+        <v>1416.89</v>
       </c>
       <c r="BV5" s="1">
-        <v>-790.774000</v>
+        <v>-790.774</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>84765.692388</v>
+        <v>84765.692387999996</v>
       </c>
       <c r="BY5" s="1">
-        <v>23.546026</v>
+        <v>23.546026000000001</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1577.240000</v>
+        <v>1577.24</v>
       </c>
       <c r="CA5" s="1">
-        <v>-1021.020000</v>
+        <v>-1021.02</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>84776.845429</v>
+        <v>84776.845428999994</v>
       </c>
       <c r="CD5" s="1">
-        <v>23.549124</v>
+        <v>23.549123999999999</v>
       </c>
       <c r="CE5" s="1">
-        <v>1981.070000</v>
+        <v>1981.07</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1561.060000</v>
+        <v>-1561.06</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>84604.986119</v>
+        <v>84604.986118999994</v>
       </c>
       <c r="B6" s="1">
-        <v>23.501385</v>
+        <v>23.501384999999999</v>
       </c>
       <c r="C6" s="1">
-        <v>910.648000</v>
+        <v>910.64800000000002</v>
       </c>
       <c r="D6" s="1">
-        <v>-196.470000</v>
+        <v>-196.47</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>84615.054412</v>
+        <v>84615.054411999998</v>
       </c>
       <c r="G6" s="1">
         <v>23.504182</v>
       </c>
       <c r="H6" s="1">
-        <v>927.067000</v>
+        <v>927.06700000000001</v>
       </c>
       <c r="I6" s="1">
-        <v>-166.972000</v>
+        <v>-166.97200000000001</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>84625.539837</v>
+        <v>84625.539837000004</v>
       </c>
       <c r="L6" s="1">
-        <v>23.507094</v>
+        <v>23.507093999999999</v>
       </c>
       <c r="M6" s="1">
-        <v>950.054000</v>
+        <v>950.05399999999997</v>
       </c>
       <c r="N6" s="1">
-        <v>-119.831000</v>
+        <v>-119.831</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>84635.725679</v>
+        <v>84635.725678999996</v>
       </c>
       <c r="Q6" s="1">
-        <v>23.509924</v>
+        <v>23.509924000000002</v>
       </c>
       <c r="R6" s="1">
-        <v>956.690000</v>
+        <v>956.69</v>
       </c>
       <c r="S6" s="1">
-        <v>-104.494000</v>
+        <v>-104.494</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>84646.602945</v>
+        <v>84646.602945000006</v>
       </c>
       <c r="V6" s="1">
-        <v>23.512945</v>
+        <v>23.512944999999998</v>
       </c>
       <c r="W6" s="1">
-        <v>963.248000</v>
+        <v>963.24800000000005</v>
       </c>
       <c r="X6" s="1">
-        <v>-90.720400</v>
+        <v>-90.720399999999998</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>84657.078984</v>
+        <v>84657.078984000007</v>
       </c>
       <c r="AA6" s="1">
-        <v>23.515855</v>
+        <v>23.515854999999998</v>
       </c>
       <c r="AB6" s="1">
-        <v>970.855000</v>
+        <v>970.85500000000002</v>
       </c>
       <c r="AC6" s="1">
-        <v>-80.984600</v>
+        <v>-80.9846</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>84667.991431</v>
+        <v>84667.991431000002</v>
       </c>
       <c r="AF6" s="1">
-        <v>23.518887</v>
+        <v>23.518886999999999</v>
       </c>
       <c r="AG6" s="1">
-        <v>975.978000</v>
+        <v>975.97799999999995</v>
       </c>
       <c r="AH6" s="1">
-        <v>-80.391200</v>
+        <v>-80.391199999999998</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>84678.422791</v>
+        <v>84678.422791000005</v>
       </c>
       <c r="AK6" s="1">
         <v>23.521784</v>
       </c>
       <c r="AL6" s="1">
-        <v>984.012000</v>
+        <v>984.01199999999994</v>
       </c>
       <c r="AM6" s="1">
-        <v>-87.845100</v>
+        <v>-87.845100000000002</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>84689.053049</v>
+        <v>84689.053048999995</v>
       </c>
       <c r="AP6" s="1">
-        <v>23.524737</v>
+        <v>23.524736999999998</v>
       </c>
       <c r="AQ6" s="1">
-        <v>993.217000</v>
+        <v>993.21699999999998</v>
       </c>
       <c r="AR6" s="1">
-        <v>-102.507000</v>
+        <v>-102.50700000000001</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>84700.112842</v>
+        <v>84700.112842000002</v>
       </c>
       <c r="AU6" s="1">
-        <v>23.527809</v>
+        <v>23.527809000000001</v>
       </c>
       <c r="AV6" s="1">
-        <v>1004.610000</v>
+        <v>1004.61</v>
       </c>
       <c r="AW6" s="1">
-        <v>-123.807000</v>
+        <v>-123.807</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>84711.236621</v>
+        <v>84711.236621000004</v>
       </c>
       <c r="AZ6" s="1">
-        <v>23.530899</v>
+        <v>23.530899000000002</v>
       </c>
       <c r="BA6" s="1">
-        <v>1014.220000</v>
+        <v>1014.22</v>
       </c>
       <c r="BB6" s="1">
-        <v>-142.401000</v>
+        <v>-142.40100000000001</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>84721.830671</v>
+        <v>84721.830671000003</v>
       </c>
       <c r="BE6" s="1">
         <v>23.533842</v>
       </c>
       <c r="BF6" s="1">
-        <v>1059.530000</v>
+        <v>1059.53</v>
       </c>
       <c r="BG6" s="1">
-        <v>-226.644000</v>
+        <v>-226.64400000000001</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>84732.910799</v>
+        <v>84732.910799000005</v>
       </c>
       <c r="BJ6" s="1">
-        <v>23.536920</v>
+        <v>23.536919999999999</v>
       </c>
       <c r="BK6" s="1">
-        <v>1139.060000</v>
+        <v>1139.06</v>
       </c>
       <c r="BL6" s="1">
-        <v>-361.478000</v>
+        <v>-361.47800000000001</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>84744.077583</v>
+        <v>84744.077583000006</v>
       </c>
       <c r="BO6" s="1">
         <v>23.540022</v>
       </c>
       <c r="BP6" s="1">
-        <v>1270.250000</v>
+        <v>1270.25</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-569.110000</v>
+        <v>-569.11</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>84754.907914</v>
+        <v>84754.907913999996</v>
       </c>
       <c r="BT6" s="1">
-        <v>23.543030</v>
+        <v>23.543030000000002</v>
       </c>
       <c r="BU6" s="1">
-        <v>1416.760000</v>
+        <v>1416.76</v>
       </c>
       <c r="BV6" s="1">
-        <v>-790.777000</v>
+        <v>-790.77700000000004</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>84766.113028</v>
+        <v>84766.113028000007</v>
       </c>
       <c r="BY6" s="1">
-        <v>23.546143</v>
+        <v>23.546143000000001</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1577.360000</v>
+        <v>1577.36</v>
       </c>
       <c r="CA6" s="1">
-        <v>-1021.100000</v>
+        <v>-1021.1</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>84777.382628</v>
+        <v>84777.382628000007</v>
       </c>
       <c r="CD6" s="1">
-        <v>23.549273</v>
+        <v>23.549272999999999</v>
       </c>
       <c r="CE6" s="1">
-        <v>1978.870000</v>
+        <v>1978.87</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1559.450000</v>
+        <v>-1559.45</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>84605.328856</v>
+        <v>84605.328855999993</v>
       </c>
       <c r="B7" s="1">
-        <v>23.501480</v>
+        <v>23.501480000000001</v>
       </c>
       <c r="C7" s="1">
-        <v>910.613000</v>
+        <v>910.61300000000006</v>
       </c>
       <c r="D7" s="1">
-        <v>-196.566000</v>
+        <v>-196.566</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>84615.397642</v>
+        <v>84615.397641999996</v>
       </c>
       <c r="G7" s="1">
-        <v>23.504277</v>
+        <v>23.504276999999998</v>
       </c>
       <c r="H7" s="1">
-        <v>927.507000</v>
+        <v>927.50699999999995</v>
       </c>
       <c r="I7" s="1">
-        <v>-166.567000</v>
+        <v>-166.56700000000001</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>84625.889038</v>
+        <v>84625.889037999994</v>
       </c>
       <c r="L7" s="1">
-        <v>23.507191</v>
+        <v>23.507190999999999</v>
       </c>
       <c r="M7" s="1">
-        <v>949.950000</v>
+        <v>949.95</v>
       </c>
       <c r="N7" s="1">
-        <v>-119.911000</v>
+        <v>-119.911</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
         <v>84636.404016</v>
       </c>
       <c r="Q7" s="1">
-        <v>23.510112</v>
+        <v>23.510111999999999</v>
       </c>
       <c r="R7" s="1">
-        <v>956.680000</v>
+        <v>956.68</v>
       </c>
       <c r="S7" s="1">
-        <v>-104.504000</v>
+        <v>-104.504</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>84646.976928</v>
+        <v>84646.976928000004</v>
       </c>
       <c r="V7" s="1">
-        <v>23.513049</v>
+        <v>23.513048999999999</v>
       </c>
       <c r="W7" s="1">
-        <v>963.259000</v>
+        <v>963.25900000000001</v>
       </c>
       <c r="X7" s="1">
-        <v>-90.700800</v>
+        <v>-90.700800000000001</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>84657.456899</v>
+        <v>84657.456898999997</v>
       </c>
       <c r="AA7" s="1">
-        <v>23.515960</v>
+        <v>23.51596</v>
       </c>
       <c r="AB7" s="1">
-        <v>970.811000</v>
+        <v>970.81100000000004</v>
       </c>
       <c r="AC7" s="1">
-        <v>-80.985700</v>
+        <v>-80.985699999999994</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>84668.341143</v>
+        <v>84668.341142999998</v>
       </c>
       <c r="AF7" s="1">
         <v>23.518984</v>
       </c>
       <c r="AG7" s="1">
-        <v>975.953000</v>
+        <v>975.95299999999997</v>
       </c>
       <c r="AH7" s="1">
-        <v>-80.367500</v>
+        <v>-80.367500000000007</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>84678.771975</v>
+        <v>84678.771974999996</v>
       </c>
       <c r="AK7" s="1">
         <v>23.521881</v>
       </c>
       <c r="AL7" s="1">
-        <v>984.012000</v>
+        <v>984.01199999999994</v>
       </c>
       <c r="AM7" s="1">
-        <v>-87.833600</v>
+        <v>-87.833600000000004</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>84689.413146</v>
+        <v>84689.413146000006</v>
       </c>
       <c r="AP7" s="1">
-        <v>23.524837</v>
+        <v>23.524837000000002</v>
       </c>
       <c r="AQ7" s="1">
-        <v>993.211000</v>
+        <v>993.21100000000001</v>
       </c>
       <c r="AR7" s="1">
-        <v>-102.479000</v>
+        <v>-102.479</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>84700.500756</v>
+        <v>84700.500755999994</v>
       </c>
       <c r="AU7" s="1">
-        <v>23.527917</v>
+        <v>23.527916999999999</v>
       </c>
       <c r="AV7" s="1">
-        <v>1004.600000</v>
+        <v>1004.6</v>
       </c>
       <c r="AW7" s="1">
-        <v>-123.817000</v>
+        <v>-123.81699999999999</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>84711.657723</v>
+        <v>84711.657722999997</v>
       </c>
       <c r="AZ7" s="1">
-        <v>23.531016</v>
+        <v>23.531016000000001</v>
       </c>
       <c r="BA7" s="1">
-        <v>1014.200000</v>
+        <v>1014.2</v>
       </c>
       <c r="BB7" s="1">
-        <v>-142.398000</v>
+        <v>-142.398</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>84722.126317</v>
+        <v>84722.126317000002</v>
       </c>
       <c r="BE7" s="1">
-        <v>23.533924</v>
+        <v>23.533923999999999</v>
       </c>
       <c r="BF7" s="1">
-        <v>1059.520000</v>
+        <v>1059.52</v>
       </c>
       <c r="BG7" s="1">
-        <v>-226.666000</v>
+        <v>-226.666</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>84733.250063</v>
+        <v>84733.250062999999</v>
       </c>
       <c r="BJ7" s="1">
-        <v>23.537014</v>
+        <v>23.537013999999999</v>
       </c>
       <c r="BK7" s="1">
-        <v>1139.060000</v>
+        <v>1139.06</v>
       </c>
       <c r="BL7" s="1">
-        <v>-361.482000</v>
+        <v>-361.48200000000003</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>84744.497849</v>
+        <v>84744.497849000007</v>
       </c>
       <c r="BO7" s="1">
-        <v>23.540138</v>
+        <v>23.540137999999999</v>
       </c>
       <c r="BP7" s="1">
-        <v>1270.260000</v>
+        <v>1270.26</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-569.054000</v>
+        <v>-569.05399999999997</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
         <v>84755.334961</v>
@@ -1976,1011 +2392,1011 @@
         <v>23.543149</v>
       </c>
       <c r="BU7" s="1">
-        <v>1416.720000</v>
+        <v>1416.72</v>
       </c>
       <c r="BV7" s="1">
-        <v>-790.796000</v>
+        <v>-790.79600000000005</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>84766.533106</v>
+        <v>84766.533106000003</v>
       </c>
       <c r="BY7" s="1">
-        <v>23.546259</v>
+        <v>23.546258999999999</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1577.340000</v>
+        <v>1577.34</v>
       </c>
       <c r="CA7" s="1">
-        <v>-1021.050000</v>
+        <v>-1021.05</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>84777.925716</v>
+        <v>84777.925715999998</v>
       </c>
       <c r="CD7" s="1">
-        <v>23.549424</v>
+        <v>23.549423999999998</v>
       </c>
       <c r="CE7" s="1">
-        <v>1980.060000</v>
+        <v>1980.06</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1561.740000</v>
+        <v>-1561.74</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>84605.672088</v>
+        <v>84605.672088000007</v>
       </c>
       <c r="B8" s="1">
         <v>23.501576</v>
       </c>
       <c r="C8" s="1">
-        <v>910.598000</v>
+        <v>910.59799999999996</v>
       </c>
       <c r="D8" s="1">
-        <v>-196.399000</v>
+        <v>-196.399</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>84616.067257</v>
+        <v>84616.067257000002</v>
       </c>
       <c r="G8" s="1">
-        <v>23.504463</v>
+        <v>23.504463000000001</v>
       </c>
       <c r="H8" s="1">
-        <v>927.735000</v>
+        <v>927.73500000000001</v>
       </c>
       <c r="I8" s="1">
-        <v>-166.846000</v>
+        <v>-166.846</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>84626.335456</v>
+        <v>84626.335456000001</v>
       </c>
       <c r="L8" s="1">
-        <v>23.507315</v>
+        <v>23.507314999999998</v>
       </c>
       <c r="M8" s="1">
-        <v>949.948000</v>
+        <v>949.94799999999998</v>
       </c>
       <c r="N8" s="1">
-        <v>-119.933000</v>
+        <v>-119.93300000000001</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>84636.768767</v>
+        <v>84636.768767000001</v>
       </c>
       <c r="Q8" s="1">
-        <v>23.510214</v>
+        <v>23.510214000000001</v>
       </c>
       <c r="R8" s="1">
-        <v>956.695000</v>
+        <v>956.69500000000005</v>
       </c>
       <c r="S8" s="1">
-        <v>-104.572000</v>
+        <v>-104.572</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>84647.321152</v>
+        <v>84647.321152000004</v>
       </c>
       <c r="V8" s="1">
-        <v>23.513145</v>
+        <v>23.513145000000002</v>
       </c>
       <c r="W8" s="1">
-        <v>963.417000</v>
+        <v>963.41700000000003</v>
       </c>
       <c r="X8" s="1">
-        <v>-90.708200</v>
+        <v>-90.708200000000005</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>84657.803106</v>
+        <v>84657.803106000007</v>
       </c>
       <c r="AA8" s="1">
-        <v>23.516056</v>
+        <v>23.516055999999999</v>
       </c>
       <c r="AB8" s="1">
-        <v>970.839000</v>
+        <v>970.83900000000006</v>
       </c>
       <c r="AC8" s="1">
-        <v>-81.039700</v>
+        <v>-81.039699999999996</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>84668.685829</v>
+        <v>84668.685828999995</v>
       </c>
       <c r="AF8" s="1">
-        <v>23.519079</v>
+        <v>23.519079000000001</v>
       </c>
       <c r="AG8" s="1">
-        <v>975.952000</v>
+        <v>975.952</v>
       </c>
       <c r="AH8" s="1">
-        <v>-80.398300</v>
+        <v>-80.398300000000006</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>84679.122646</v>
+        <v>84679.122646000003</v>
       </c>
       <c r="AK8" s="1">
-        <v>23.521979</v>
+        <v>23.521979000000002</v>
       </c>
       <c r="AL8" s="1">
-        <v>984.000000</v>
+        <v>984</v>
       </c>
       <c r="AM8" s="1">
-        <v>-87.822600</v>
+        <v>-87.822599999999994</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>84689.840232</v>
+        <v>84689.840232000002</v>
       </c>
       <c r="AP8" s="1">
         <v>23.524956</v>
       </c>
       <c r="AQ8" s="1">
-        <v>993.232000</v>
+        <v>993.23199999999997</v>
       </c>
       <c r="AR8" s="1">
-        <v>-102.469000</v>
+        <v>-102.46899999999999</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>84701.055737</v>
+        <v>84701.055737000002</v>
       </c>
       <c r="AU8" s="1">
-        <v>23.528071</v>
+        <v>23.528071000000001</v>
       </c>
       <c r="AV8" s="1">
-        <v>1004.600000</v>
+        <v>1004.6</v>
       </c>
       <c r="AW8" s="1">
-        <v>-123.803000</v>
+        <v>-123.803</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>84711.953373</v>
+        <v>84711.953372999997</v>
       </c>
       <c r="AZ8" s="1">
         <v>23.531098</v>
       </c>
       <c r="BA8" s="1">
-        <v>1014.220000</v>
+        <v>1014.22</v>
       </c>
       <c r="BB8" s="1">
-        <v>-142.401000</v>
+        <v>-142.40100000000001</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>84722.486413</v>
+        <v>84722.486413000006</v>
       </c>
       <c r="BE8" s="1">
-        <v>23.534024</v>
+        <v>23.534023999999999</v>
       </c>
       <c r="BF8" s="1">
-        <v>1059.510000</v>
+        <v>1059.51</v>
       </c>
       <c r="BG8" s="1">
-        <v>-226.637000</v>
+        <v>-226.637</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>84733.639929</v>
+        <v>84733.639928999997</v>
       </c>
       <c r="BJ8" s="1">
         <v>23.537122</v>
       </c>
       <c r="BK8" s="1">
-        <v>1139.060000</v>
+        <v>1139.06</v>
       </c>
       <c r="BL8" s="1">
-        <v>-361.477000</v>
+        <v>-361.47699999999998</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>84744.893648</v>
+        <v>84744.893647999997</v>
       </c>
       <c r="BO8" s="1">
-        <v>23.540248</v>
+        <v>23.540247999999998</v>
       </c>
       <c r="BP8" s="1">
-        <v>1270.240000</v>
+        <v>1270.24</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-569.107000</v>
+        <v>-569.10699999999997</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>84756.158784</v>
+        <v>84756.158783999999</v>
       </c>
       <c r="BT8" s="1">
         <v>23.543377</v>
       </c>
       <c r="BU8" s="1">
-        <v>1416.700000</v>
+        <v>1416.7</v>
       </c>
       <c r="BV8" s="1">
-        <v>-790.684000</v>
+        <v>-790.68399999999997</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>84766.967106</v>
+        <v>84766.967105999996</v>
       </c>
       <c r="BY8" s="1">
-        <v>23.546380</v>
+        <v>23.546379999999999</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1577.310000</v>
+        <v>1577.31</v>
       </c>
       <c r="CA8" s="1">
-        <v>-1021.110000</v>
+        <v>-1021.11</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>84778.466851</v>
+        <v>84778.466851000005</v>
       </c>
       <c r="CD8" s="1">
         <v>23.549574</v>
       </c>
       <c r="CE8" s="1">
-        <v>1980.600000</v>
+        <v>1980.6</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1559.550000</v>
+        <v>-1559.55</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>84606.118488</v>
+        <v>84606.118487999993</v>
       </c>
       <c r="B9" s="1">
-        <v>23.501700</v>
+        <v>23.5017</v>
       </c>
       <c r="C9" s="1">
-        <v>910.554000</v>
+        <v>910.55399999999997</v>
       </c>
       <c r="D9" s="1">
-        <v>-196.413000</v>
+        <v>-196.41300000000001</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>84616.430314</v>
+        <v>84616.430313999997</v>
       </c>
       <c r="G9" s="1">
-        <v>23.504564</v>
+        <v>23.504563999999998</v>
       </c>
       <c r="H9" s="1">
-        <v>927.227000</v>
+        <v>927.22699999999998</v>
       </c>
       <c r="I9" s="1">
-        <v>-166.634000</v>
+        <v>-166.63399999999999</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>84626.581437</v>
+        <v>84626.581437000001</v>
       </c>
       <c r="L9" s="1">
-        <v>23.507384</v>
+        <v>23.507383999999998</v>
       </c>
       <c r="M9" s="1">
-        <v>949.924000</v>
+        <v>949.92399999999998</v>
       </c>
       <c r="N9" s="1">
-        <v>-119.768000</v>
+        <v>-119.768</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
         <v>84637.118445</v>
       </c>
       <c r="Q9" s="1">
-        <v>23.510311</v>
+        <v>23.510311000000002</v>
       </c>
       <c r="R9" s="1">
-        <v>956.680000</v>
+        <v>956.68</v>
       </c>
       <c r="S9" s="1">
-        <v>-104.580000</v>
+        <v>-104.58</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>84647.669685</v>
+        <v>84647.669685000001</v>
       </c>
       <c r="V9" s="1">
-        <v>23.513242</v>
+        <v>23.513242000000002</v>
       </c>
       <c r="W9" s="1">
-        <v>963.309000</v>
+        <v>963.30899999999997</v>
       </c>
       <c r="X9" s="1">
-        <v>-90.727000</v>
+        <v>-90.727000000000004</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>84658.156257</v>
+        <v>84658.156256999995</v>
       </c>
       <c r="AA9" s="1">
-        <v>23.516155</v>
+        <v>23.516155000000001</v>
       </c>
       <c r="AB9" s="1">
-        <v>970.836000</v>
+        <v>970.83600000000001</v>
       </c>
       <c r="AC9" s="1">
-        <v>-80.963500</v>
+        <v>-80.963499999999996</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>84669.109907</v>
+        <v>84669.109907000005</v>
       </c>
       <c r="AF9" s="1">
-        <v>23.519197</v>
+        <v>23.519196999999998</v>
       </c>
       <c r="AG9" s="1">
-        <v>975.908000</v>
+        <v>975.90800000000002</v>
       </c>
       <c r="AH9" s="1">
-        <v>-80.362400</v>
+        <v>-80.362399999999994</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>84679.562140</v>
+        <v>84679.562139999995</v>
       </c>
       <c r="AK9" s="1">
-        <v>23.522101</v>
+        <v>23.522100999999999</v>
       </c>
       <c r="AL9" s="1">
-        <v>983.977000</v>
+        <v>983.97699999999998</v>
       </c>
       <c r="AM9" s="1">
-        <v>-87.817800</v>
+        <v>-87.817800000000005</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>84690.133831</v>
+        <v>84690.133830999999</v>
       </c>
       <c r="AP9" s="1">
-        <v>23.525037</v>
+        <v>23.525037000000001</v>
       </c>
       <c r="AQ9" s="1">
-        <v>993.230000</v>
+        <v>993.23</v>
       </c>
       <c r="AR9" s="1">
-        <v>-102.505000</v>
+        <v>-102.505</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>84701.209993</v>
+        <v>84701.209992999997</v>
       </c>
       <c r="AU9" s="1">
-        <v>23.528114</v>
+        <v>23.528113999999999</v>
       </c>
       <c r="AV9" s="1">
-        <v>1004.600000</v>
+        <v>1004.6</v>
       </c>
       <c r="AW9" s="1">
-        <v>-123.804000</v>
+        <v>-123.804</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>84712.311979</v>
+        <v>84712.311979000006</v>
       </c>
       <c r="AZ9" s="1">
         <v>23.531198</v>
       </c>
       <c r="BA9" s="1">
-        <v>1014.210000</v>
+        <v>1014.21</v>
       </c>
       <c r="BB9" s="1">
-        <v>-142.409000</v>
+        <v>-142.40899999999999</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>84722.847964</v>
+        <v>84722.847964000001</v>
       </c>
       <c r="BE9" s="1">
-        <v>23.534124</v>
+        <v>23.534123999999998</v>
       </c>
       <c r="BF9" s="1">
-        <v>1059.510000</v>
+        <v>1059.51</v>
       </c>
       <c r="BG9" s="1">
-        <v>-226.641000</v>
+        <v>-226.64099999999999</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>84734.013443</v>
+        <v>84734.013443000003</v>
       </c>
       <c r="BJ9" s="1">
         <v>23.537226</v>
       </c>
       <c r="BK9" s="1">
-        <v>1139.070000</v>
+        <v>1139.07</v>
       </c>
       <c r="BL9" s="1">
-        <v>-361.467000</v>
+        <v>-361.46699999999998</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>84745.324214</v>
+        <v>84745.324213999993</v>
       </c>
       <c r="BO9" s="1">
-        <v>23.540368</v>
+        <v>23.540368000000001</v>
       </c>
       <c r="BP9" s="1">
-        <v>1270.270000</v>
+        <v>1270.27</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-569.109000</v>
+        <v>-569.10900000000004</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>84756.596752</v>
+        <v>84756.596751999998</v>
       </c>
       <c r="BT9" s="1">
-        <v>23.543499</v>
+        <v>23.543499000000001</v>
       </c>
       <c r="BU9" s="1">
-        <v>1416.680000</v>
+        <v>1416.68</v>
       </c>
       <c r="BV9" s="1">
-        <v>-790.641000</v>
+        <v>-790.64099999999996</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
         <v>84767.378289</v>
       </c>
       <c r="BY9" s="1">
-        <v>23.546494</v>
+        <v>23.546493999999999</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1577.340000</v>
+        <v>1577.34</v>
       </c>
       <c r="CA9" s="1">
-        <v>-1021.220000</v>
+        <v>-1021.22</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>84779.002530</v>
+        <v>84779.002529999998</v>
       </c>
       <c r="CD9" s="1">
         <v>23.549723</v>
       </c>
       <c r="CE9" s="1">
-        <v>1979.130000</v>
+        <v>1979.13</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1560.740000</v>
+        <v>-1560.74</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>84606.367975</v>
+        <v>84606.367975000001</v>
       </c>
       <c r="B10" s="1">
-        <v>23.501769</v>
+        <v>23.501768999999999</v>
       </c>
       <c r="C10" s="1">
-        <v>910.639000</v>
+        <v>910.63900000000001</v>
       </c>
       <c r="D10" s="1">
-        <v>-196.442000</v>
+        <v>-196.44200000000001</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>84616.778504</v>
+        <v>84616.778504000002</v>
       </c>
       <c r="G10" s="1">
-        <v>23.504661</v>
+        <v>23.504660999999999</v>
       </c>
       <c r="H10" s="1">
-        <v>927.335000</v>
+        <v>927.33500000000004</v>
       </c>
       <c r="I10" s="1">
-        <v>-166.922000</v>
+        <v>-166.922</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>84626.929131</v>
+        <v>84626.929130999997</v>
       </c>
       <c r="L10" s="1">
-        <v>23.507480</v>
+        <v>23.507480000000001</v>
       </c>
       <c r="M10" s="1">
-        <v>949.946000</v>
+        <v>949.94600000000003</v>
       </c>
       <c r="N10" s="1">
-        <v>-119.741000</v>
+        <v>-119.741</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>84637.466637</v>
+        <v>84637.466637000005</v>
       </c>
       <c r="Q10" s="1">
-        <v>23.510407</v>
+        <v>23.510407000000001</v>
       </c>
       <c r="R10" s="1">
-        <v>956.714000</v>
+        <v>956.71400000000006</v>
       </c>
       <c r="S10" s="1">
-        <v>-104.563000</v>
+        <v>-104.563</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>84648.108304</v>
+        <v>84648.108303999994</v>
       </c>
       <c r="V10" s="1">
-        <v>23.513363</v>
+        <v>23.513362999999998</v>
       </c>
       <c r="W10" s="1">
-        <v>963.373000</v>
+        <v>963.37300000000005</v>
       </c>
       <c r="X10" s="1">
-        <v>-90.695900</v>
+        <v>-90.695899999999995</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>84658.585796</v>
+        <v>84658.585795999999</v>
       </c>
       <c r="AA10" s="1">
-        <v>23.516274</v>
+        <v>23.516273999999999</v>
       </c>
       <c r="AB10" s="1">
-        <v>970.818000</v>
+        <v>970.81799999999998</v>
       </c>
       <c r="AC10" s="1">
-        <v>-80.988600</v>
+        <v>-80.988600000000005</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>84669.381257</v>
+        <v>84669.381257000001</v>
       </c>
       <c r="AF10" s="1">
-        <v>23.519273</v>
+        <v>23.519272999999998</v>
       </c>
       <c r="AG10" s="1">
-        <v>975.964000</v>
+        <v>975.96400000000006</v>
       </c>
       <c r="AH10" s="1">
-        <v>-80.373900</v>
+        <v>-80.373900000000006</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
         <v>84679.820517</v>
       </c>
       <c r="AK10" s="1">
-        <v>23.522172</v>
+        <v>23.522172000000001</v>
       </c>
       <c r="AL10" s="1">
-        <v>983.991000</v>
+        <v>983.99099999999999</v>
       </c>
       <c r="AM10" s="1">
-        <v>-87.809900</v>
+        <v>-87.809899999999999</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>84690.492935</v>
+        <v>84690.492935000002</v>
       </c>
       <c r="AP10" s="1">
-        <v>23.525137</v>
+        <v>23.525137000000001</v>
       </c>
       <c r="AQ10" s="1">
-        <v>993.219000</v>
+        <v>993.21900000000005</v>
       </c>
       <c r="AR10" s="1">
-        <v>-102.498000</v>
+        <v>-102.498</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>84701.601845</v>
+        <v>84701.601844999997</v>
       </c>
       <c r="AU10" s="1">
-        <v>23.528223</v>
+        <v>23.528223000000001</v>
       </c>
       <c r="AV10" s="1">
-        <v>1004.610000</v>
+        <v>1004.61</v>
       </c>
       <c r="AW10" s="1">
-        <v>-123.824000</v>
+        <v>-123.824</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>84712.670059</v>
+        <v>84712.670058999996</v>
       </c>
       <c r="AZ10" s="1">
-        <v>23.531297</v>
+        <v>23.531296999999999</v>
       </c>
       <c r="BA10" s="1">
-        <v>1014.190000</v>
+        <v>1014.19</v>
       </c>
       <c r="BB10" s="1">
-        <v>-142.398000</v>
+        <v>-142.398</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>84723.571627</v>
+        <v>84723.571626999998</v>
       </c>
       <c r="BE10" s="1">
-        <v>23.534325</v>
+        <v>23.534324999999999</v>
       </c>
       <c r="BF10" s="1">
-        <v>1059.530000</v>
+        <v>1059.53</v>
       </c>
       <c r="BG10" s="1">
-        <v>-226.651000</v>
+        <v>-226.65100000000001</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>84734.767820</v>
+        <v>84734.767819999994</v>
       </c>
       <c r="BJ10" s="1">
         <v>23.537436</v>
       </c>
       <c r="BK10" s="1">
-        <v>1139.040000</v>
+        <v>1139.04</v>
       </c>
       <c r="BL10" s="1">
-        <v>-361.478000</v>
+        <v>-361.47800000000001</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>84745.711550</v>
+        <v>84745.711550000007</v>
       </c>
       <c r="BO10" s="1">
-        <v>23.540475</v>
+        <v>23.540475000000001</v>
       </c>
       <c r="BP10" s="1">
-        <v>1270.230000</v>
+        <v>1270.23</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-569.159000</v>
+        <v>-569.15899999999999</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>84757.022816</v>
+        <v>84757.022815999997</v>
       </c>
       <c r="BT10" s="1">
-        <v>23.543617</v>
+        <v>23.543617000000001</v>
       </c>
       <c r="BU10" s="1">
-        <v>1416.610000</v>
+        <v>1416.61</v>
       </c>
       <c r="BV10" s="1">
-        <v>-790.622000</v>
+        <v>-790.62199999999996</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>84767.826177</v>
+        <v>84767.826176999995</v>
       </c>
       <c r="BY10" s="1">
-        <v>23.546618</v>
+        <v>23.546617999999999</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1577.350000</v>
+        <v>1577.35</v>
       </c>
       <c r="CA10" s="1">
-        <v>-1021.160000</v>
+        <v>-1021.16</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>84779.856144</v>
+        <v>84779.856144000005</v>
       </c>
       <c r="CD10" s="1">
-        <v>23.549960</v>
+        <v>23.549959999999999</v>
       </c>
       <c r="CE10" s="1">
-        <v>1980.160000</v>
+        <v>1980.16</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1559.370000</v>
+        <v>-1559.37</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>84606.710214</v>
+        <v>84606.710214000006</v>
       </c>
       <c r="B11" s="1">
-        <v>23.501864</v>
+        <v>23.501864000000001</v>
       </c>
       <c r="C11" s="1">
-        <v>910.641000</v>
+        <v>910.64099999999996</v>
       </c>
       <c r="D11" s="1">
-        <v>-196.415000</v>
+        <v>-196.41499999999999</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>84617.129673</v>
+        <v>84617.129673000003</v>
       </c>
       <c r="G11" s="1">
-        <v>23.504758</v>
+        <v>23.504757999999999</v>
       </c>
       <c r="H11" s="1">
-        <v>927.644000</v>
+        <v>927.64400000000001</v>
       </c>
       <c r="I11" s="1">
-        <v>-166.716000</v>
+        <v>-166.71600000000001</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>84627.359658</v>
+        <v>84627.359658000001</v>
       </c>
       <c r="L11" s="1">
-        <v>23.507600</v>
+        <v>23.5076</v>
       </c>
       <c r="M11" s="1">
-        <v>950.063000</v>
+        <v>950.06299999999999</v>
       </c>
       <c r="N11" s="1">
-        <v>-119.843000</v>
+        <v>-119.843</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>84637.899148</v>
+        <v>84637.899147999997</v>
       </c>
       <c r="Q11" s="1">
-        <v>23.510528</v>
+        <v>23.510528000000001</v>
       </c>
       <c r="R11" s="1">
-        <v>956.662000</v>
+        <v>956.66200000000003</v>
       </c>
       <c r="S11" s="1">
-        <v>-104.479000</v>
+        <v>-104.479</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>84648.360767</v>
+        <v>84648.360767000006</v>
       </c>
       <c r="V11" s="1">
         <v>23.513434</v>
       </c>
       <c r="W11" s="1">
-        <v>963.398000</v>
+        <v>963.39800000000002</v>
       </c>
       <c r="X11" s="1">
-        <v>-90.753000</v>
+        <v>-90.753</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>84658.851649</v>
+        <v>84658.851649000004</v>
       </c>
       <c r="AA11" s="1">
-        <v>23.516348</v>
+        <v>23.516348000000001</v>
       </c>
       <c r="AB11" s="1">
-        <v>970.787000</v>
+        <v>970.78700000000003</v>
       </c>
       <c r="AC11" s="1">
-        <v>-81.069800</v>
+        <v>-81.069800000000001</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>84669.724947</v>
+        <v>84669.724946999995</v>
       </c>
       <c r="AF11" s="1">
         <v>23.519368</v>
       </c>
       <c r="AG11" s="1">
-        <v>975.974000</v>
+        <v>975.97400000000005</v>
       </c>
       <c r="AH11" s="1">
-        <v>-80.366000</v>
+        <v>-80.366</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>84680.169700</v>
+        <v>84680.169699999999</v>
       </c>
       <c r="AK11" s="1">
-        <v>23.522269</v>
+        <v>23.522269000000001</v>
       </c>
       <c r="AL11" s="1">
-        <v>983.988000</v>
+        <v>983.98800000000006</v>
       </c>
       <c r="AM11" s="1">
-        <v>-87.808100</v>
+        <v>-87.808099999999996</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>84690.855542</v>
+        <v>84690.855542000005</v>
       </c>
       <c r="AP11" s="1">
-        <v>23.525238</v>
+        <v>23.525238000000002</v>
       </c>
       <c r="AQ11" s="1">
-        <v>993.235000</v>
+        <v>993.23500000000001</v>
       </c>
       <c r="AR11" s="1">
-        <v>-102.495000</v>
+        <v>-102.495</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>84702.330455</v>
+        <v>84702.330455000003</v>
       </c>
       <c r="AU11" s="1">
-        <v>23.528425</v>
+        <v>23.528424999999999</v>
       </c>
       <c r="AV11" s="1">
-        <v>1004.600000</v>
+        <v>1004.6</v>
       </c>
       <c r="AW11" s="1">
-        <v>-123.817000</v>
+        <v>-123.81699999999999</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
         <v>84713.387273</v>
       </c>
       <c r="AZ11" s="1">
-        <v>23.531496</v>
+        <v>23.531496000000001</v>
       </c>
       <c r="BA11" s="1">
-        <v>1014.210000</v>
+        <v>1014.21</v>
       </c>
       <c r="BB11" s="1">
-        <v>-142.409000</v>
+        <v>-142.40899999999999</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>84723.958011</v>
+        <v>84723.958010999995</v>
       </c>
       <c r="BE11" s="1">
         <v>23.534433</v>
       </c>
       <c r="BF11" s="1">
-        <v>1059.520000</v>
+        <v>1059.52</v>
       </c>
       <c r="BG11" s="1">
-        <v>-226.645000</v>
+        <v>-226.64500000000001</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>84735.143788</v>
+        <v>84735.143788000001</v>
       </c>
       <c r="BJ11" s="1">
-        <v>23.537540</v>
+        <v>23.53754</v>
       </c>
       <c r="BK11" s="1">
-        <v>1139.060000</v>
+        <v>1139.06</v>
       </c>
       <c r="BL11" s="1">
-        <v>-361.472000</v>
+        <v>-361.47199999999998</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
         <v>84746.132157</v>
@@ -2989,255 +3405,255 @@
         <v>23.540592</v>
       </c>
       <c r="BP11" s="1">
-        <v>1270.280000</v>
+        <v>1270.28</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-569.111000</v>
+        <v>-569.11099999999999</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>84757.748958</v>
+        <v>84757.748957999996</v>
       </c>
       <c r="BT11" s="1">
-        <v>23.543819</v>
+        <v>23.543818999999999</v>
       </c>
       <c r="BU11" s="1">
-        <v>1416.600000</v>
+        <v>1416.6</v>
       </c>
       <c r="BV11" s="1">
-        <v>-790.507000</v>
+        <v>-790.50699999999995</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>84768.564224</v>
+        <v>84768.564224000002</v>
       </c>
       <c r="BY11" s="1">
         <v>23.546823</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1577.230000</v>
+        <v>1577.23</v>
       </c>
       <c r="CA11" s="1">
-        <v>-1021.030000</v>
+        <v>-1021.03</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>84780.084306</v>
+        <v>84780.084306000004</v>
       </c>
       <c r="CD11" s="1">
-        <v>23.550023</v>
+        <v>23.550022999999999</v>
       </c>
       <c r="CE11" s="1">
-        <v>1980.480000</v>
+        <v>1980.48</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1559.700000</v>
+        <v>-1559.7</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>84607.143717</v>
+        <v>84607.143716999999</v>
       </c>
       <c r="B12" s="1">
         <v>23.501984</v>
       </c>
       <c r="C12" s="1">
-        <v>910.659000</v>
+        <v>910.65899999999999</v>
       </c>
       <c r="D12" s="1">
-        <v>-196.419000</v>
+        <v>-196.41900000000001</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>84617.563673</v>
+        <v>84617.563672999997</v>
       </c>
       <c r="G12" s="1">
-        <v>23.504879</v>
+        <v>23.504878999999999</v>
       </c>
       <c r="H12" s="1">
-        <v>927.569000</v>
+        <v>927.56899999999996</v>
       </c>
       <c r="I12" s="1">
-        <v>-166.701000</v>
+        <v>-166.70099999999999</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>84627.623035</v>
+        <v>84627.623034999997</v>
       </c>
       <c r="L12" s="1">
         <v>23.507673</v>
       </c>
       <c r="M12" s="1">
-        <v>949.864000</v>
+        <v>949.86400000000003</v>
       </c>
       <c r="N12" s="1">
-        <v>-119.900000</v>
+        <v>-119.9</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>84638.163516</v>
+        <v>84638.163516000001</v>
       </c>
       <c r="Q12" s="1">
-        <v>23.510601</v>
+        <v>23.510601000000001</v>
       </c>
       <c r="R12" s="1">
-        <v>956.673000</v>
+        <v>956.673</v>
       </c>
       <c r="S12" s="1">
-        <v>-104.501000</v>
+        <v>-104.501</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>84648.706515</v>
+        <v>84648.706514999998</v>
       </c>
       <c r="V12" s="1">
-        <v>23.513530</v>
+        <v>23.513529999999999</v>
       </c>
       <c r="W12" s="1">
-        <v>963.328000</v>
+        <v>963.32799999999997</v>
       </c>
       <c r="X12" s="1">
-        <v>-90.721400</v>
+        <v>-90.721400000000003</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>84659.201825</v>
+        <v>84659.201824999996</v>
       </c>
       <c r="AA12" s="1">
-        <v>23.516445</v>
+        <v>23.516445000000001</v>
       </c>
       <c r="AB12" s="1">
-        <v>970.836000</v>
+        <v>970.83600000000001</v>
       </c>
       <c r="AC12" s="1">
-        <v>-81.028600</v>
+        <v>-81.028599999999997</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>84670.070658</v>
+        <v>84670.070657999997</v>
       </c>
       <c r="AF12" s="1">
-        <v>23.519464</v>
+        <v>23.519463999999999</v>
       </c>
       <c r="AG12" s="1">
-        <v>975.932000</v>
+        <v>975.93200000000002</v>
       </c>
       <c r="AH12" s="1">
-        <v>-80.406600</v>
+        <v>-80.406599999999997</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>84680.518425</v>
+        <v>84680.518425000002</v>
       </c>
       <c r="AK12" s="1">
-        <v>23.522366</v>
+        <v>23.522366000000002</v>
       </c>
       <c r="AL12" s="1">
-        <v>983.992000</v>
+        <v>983.99199999999996</v>
       </c>
       <c r="AM12" s="1">
-        <v>-87.829200</v>
+        <v>-87.8292</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>84691.581189</v>
+        <v>84691.581189000004</v>
       </c>
       <c r="AP12" s="1">
-        <v>23.525439</v>
+        <v>23.525438999999999</v>
       </c>
       <c r="AQ12" s="1">
-        <v>993.227000</v>
+        <v>993.22699999999998</v>
       </c>
       <c r="AR12" s="1">
-        <v>-102.509000</v>
+        <v>-102.509</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>84702.721798</v>
+        <v>84702.721797999999</v>
       </c>
       <c r="AU12" s="1">
-        <v>23.528534</v>
+        <v>23.528534000000001</v>
       </c>
       <c r="AV12" s="1">
-        <v>1004.600000</v>
+        <v>1004.6</v>
       </c>
       <c r="AW12" s="1">
-        <v>-123.822000</v>
+        <v>-123.822</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>84713.746376</v>
+        <v>84713.746375999996</v>
       </c>
       <c r="AZ12" s="1">
         <v>23.531596</v>
       </c>
       <c r="BA12" s="1">
-        <v>1014.220000</v>
+        <v>1014.22</v>
       </c>
       <c r="BB12" s="1">
-        <v>-142.410000</v>
+        <v>-142.41</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>84724.320586</v>
+        <v>84724.320586000002</v>
       </c>
       <c r="BE12" s="1">
         <v>23.534533</v>
       </c>
       <c r="BF12" s="1">
-        <v>1059.520000</v>
+        <v>1059.52</v>
       </c>
       <c r="BG12" s="1">
-        <v>-226.657000</v>
+        <v>-226.65700000000001</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>84735.515788</v>
+        <v>84735.515788000004</v>
       </c>
       <c r="BJ12" s="1">
-        <v>23.537643</v>
+        <v>23.537642999999999</v>
       </c>
       <c r="BK12" s="1">
-        <v>1139.080000</v>
+        <v>1139.08</v>
       </c>
       <c r="BL12" s="1">
-        <v>-361.468000</v>
+        <v>-361.46800000000002</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
         <v>84746.839452</v>
@@ -3246,135 +3662,135 @@
         <v>23.540789</v>
       </c>
       <c r="BP12" s="1">
-        <v>1270.270000</v>
+        <v>1270.27</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-569.113000</v>
+        <v>-569.11300000000006</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>84757.867535</v>
+        <v>84757.867534999998</v>
       </c>
       <c r="BT12" s="1">
-        <v>23.543852</v>
+        <v>23.543852000000001</v>
       </c>
       <c r="BU12" s="1">
-        <v>1416.650000</v>
+        <v>1416.65</v>
       </c>
       <c r="BV12" s="1">
-        <v>-790.439000</v>
+        <v>-790.43899999999996</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>84768.688752</v>
+        <v>84768.688752000002</v>
       </c>
       <c r="BY12" s="1">
         <v>23.546858</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1577.340000</v>
+        <v>1577.34</v>
       </c>
       <c r="CA12" s="1">
-        <v>-1021.080000</v>
+        <v>-1021.08</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>84780.600640</v>
+        <v>84780.600640000004</v>
       </c>
       <c r="CD12" s="1">
-        <v>23.550167</v>
+        <v>23.550166999999998</v>
       </c>
       <c r="CE12" s="1">
-        <v>1979.020000</v>
+        <v>1979.02</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1560.450000</v>
+        <v>-1560.45</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>84607.411557</v>
+        <v>84607.411556999999</v>
       </c>
       <c r="B13" s="1">
-        <v>23.502059</v>
+        <v>23.502058999999999</v>
       </c>
       <c r="C13" s="1">
-        <v>910.629000</v>
+        <v>910.62900000000002</v>
       </c>
       <c r="D13" s="1">
-        <v>-196.396000</v>
+        <v>-196.39599999999999</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>84617.832007</v>
+        <v>84617.832007000005</v>
       </c>
       <c r="G13" s="1">
         <v>23.504953</v>
       </c>
       <c r="H13" s="1">
-        <v>927.313000</v>
+        <v>927.31299999999999</v>
       </c>
       <c r="I13" s="1">
-        <v>-166.468000</v>
+        <v>-166.46799999999999</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>84627.958330</v>
+        <v>84627.958329999994</v>
       </c>
       <c r="L13" s="1">
         <v>23.507766</v>
       </c>
       <c r="M13" s="1">
-        <v>949.863000</v>
+        <v>949.86300000000006</v>
       </c>
       <c r="N13" s="1">
-        <v>-119.867000</v>
+        <v>-119.867</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>84638.516704</v>
+        <v>84638.516703999994</v>
       </c>
       <c r="Q13" s="1">
-        <v>23.510699</v>
+        <v>23.510698999999999</v>
       </c>
       <c r="R13" s="1">
-        <v>956.718000</v>
+        <v>956.71799999999996</v>
       </c>
       <c r="S13" s="1">
-        <v>-104.521000</v>
+        <v>-104.521</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>84649.050251</v>
+        <v>84649.050250999993</v>
       </c>
       <c r="V13" s="1">
-        <v>23.513625</v>
+        <v>23.513625000000001</v>
       </c>
       <c r="W13" s="1">
-        <v>963.409000</v>
+        <v>963.40899999999999</v>
       </c>
       <c r="X13" s="1">
-        <v>-90.714100</v>
+        <v>-90.714100000000002</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
         <v>84659.549025</v>
@@ -3383,300 +3799,300 @@
         <v>23.516541</v>
       </c>
       <c r="AB13" s="1">
-        <v>970.817000</v>
+        <v>970.81700000000001</v>
       </c>
       <c r="AC13" s="1">
-        <v>-80.963200</v>
+        <v>-80.963200000000001</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>84670.756625</v>
+        <v>84670.756624999995</v>
       </c>
       <c r="AF13" s="1">
         <v>23.519655</v>
       </c>
       <c r="AG13" s="1">
-        <v>975.982000</v>
+        <v>975.98199999999997</v>
       </c>
       <c r="AH13" s="1">
-        <v>-80.369600</v>
+        <v>-80.369600000000005</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>84681.211299</v>
+        <v>84681.211299000002</v>
       </c>
       <c r="AK13" s="1">
-        <v>23.522559</v>
+        <v>23.522559000000001</v>
       </c>
       <c r="AL13" s="1">
-        <v>984.003000</v>
+        <v>984.00300000000004</v>
       </c>
       <c r="AM13" s="1">
-        <v>-87.856200</v>
+        <v>-87.856200000000001</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>84691.959605</v>
+        <v>84691.959604999996</v>
       </c>
       <c r="AP13" s="1">
         <v>23.525544</v>
       </c>
       <c r="AQ13" s="1">
-        <v>993.230000</v>
+        <v>993.23</v>
       </c>
       <c r="AR13" s="1">
-        <v>-102.499000</v>
+        <v>-102.499</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>84703.084872</v>
+        <v>84703.084872000007</v>
       </c>
       <c r="AU13" s="1">
-        <v>23.528635</v>
+        <v>23.528635000000001</v>
       </c>
       <c r="AV13" s="1">
-        <v>1004.600000</v>
+        <v>1004.6</v>
       </c>
       <c r="AW13" s="1">
-        <v>-123.804000</v>
+        <v>-123.804</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>84714.103000</v>
+        <v>84714.103000000003</v>
       </c>
       <c r="AZ13" s="1">
-        <v>23.531695</v>
+        <v>23.531694999999999</v>
       </c>
       <c r="BA13" s="1">
-        <v>1014.220000</v>
+        <v>1014.22</v>
       </c>
       <c r="BB13" s="1">
-        <v>-142.430000</v>
+        <v>-142.43</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
         <v>84724.993659</v>
       </c>
       <c r="BE13" s="1">
-        <v>23.534720</v>
+        <v>23.53472</v>
       </c>
       <c r="BF13" s="1">
-        <v>1059.520000</v>
+        <v>1059.52</v>
       </c>
       <c r="BG13" s="1">
-        <v>-226.628000</v>
+        <v>-226.62799999999999</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>84736.281114</v>
+        <v>84736.281113999998</v>
       </c>
       <c r="BJ13" s="1">
-        <v>23.537856</v>
+        <v>23.537856000000001</v>
       </c>
       <c r="BK13" s="1">
-        <v>1139.060000</v>
+        <v>1139.06</v>
       </c>
       <c r="BL13" s="1">
-        <v>-361.476000</v>
+        <v>-361.476</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
         <v>84746.966428</v>
       </c>
       <c r="BO13" s="1">
-        <v>23.540824</v>
+        <v>23.540824000000001</v>
       </c>
       <c r="BP13" s="1">
-        <v>1270.280000</v>
+        <v>1270.28</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-569.112000</v>
+        <v>-569.11199999999997</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>84758.304973</v>
+        <v>84758.304973000006</v>
       </c>
       <c r="BT13" s="1">
-        <v>23.543974</v>
+        <v>23.543973999999999</v>
       </c>
       <c r="BU13" s="1">
-        <v>1416.610000</v>
+        <v>1416.61</v>
       </c>
       <c r="BV13" s="1">
-        <v>-790.433000</v>
+        <v>-790.43299999999999</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>84769.116799</v>
+        <v>84769.116798999996</v>
       </c>
       <c r="BY13" s="1">
-        <v>23.546977</v>
+        <v>23.546976999999998</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1577.350000</v>
+        <v>1577.35</v>
       </c>
       <c r="CA13" s="1">
-        <v>-1021.130000</v>
+        <v>-1021.13</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>84781.121440</v>
+        <v>84781.121440000003</v>
       </c>
       <c r="CD13" s="1">
-        <v>23.550312</v>
+        <v>23.550312000000002</v>
       </c>
       <c r="CE13" s="1">
-        <v>1979.070000</v>
+        <v>1979.07</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1559.860000</v>
+        <v>-1559.86</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>84607.753834</v>
+        <v>84607.753834000003</v>
       </c>
       <c r="B14" s="1">
-        <v>23.502154</v>
+        <v>23.502154000000001</v>
       </c>
       <c r="C14" s="1">
-        <v>910.735000</v>
+        <v>910.73500000000001</v>
       </c>
       <c r="D14" s="1">
-        <v>-196.346000</v>
+        <v>-196.346</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>84618.174742</v>
+        <v>84618.174742000003</v>
       </c>
       <c r="G14" s="1">
         <v>23.505049</v>
       </c>
       <c r="H14" s="1">
-        <v>927.559000</v>
+        <v>927.55899999999997</v>
       </c>
       <c r="I14" s="1">
-        <v>-166.533000</v>
+        <v>-166.53299999999999</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>84628.314985</v>
+        <v>84628.314985000005</v>
       </c>
       <c r="L14" s="1">
-        <v>23.507865</v>
+        <v>23.507864999999999</v>
       </c>
       <c r="M14" s="1">
-        <v>950.046000</v>
+        <v>950.04600000000005</v>
       </c>
       <c r="N14" s="1">
-        <v>-119.818000</v>
+        <v>-119.818</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
         <v>84638.865393</v>
       </c>
       <c r="Q14" s="1">
-        <v>23.510796</v>
+        <v>23.510795999999999</v>
       </c>
       <c r="R14" s="1">
-        <v>956.696000</v>
+        <v>956.69600000000003</v>
       </c>
       <c r="S14" s="1">
-        <v>-104.550000</v>
+        <v>-104.55</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>84649.737202</v>
+        <v>84649.737202000004</v>
       </c>
       <c r="V14" s="1">
-        <v>23.513816</v>
+        <v>23.513815999999998</v>
       </c>
       <c r="W14" s="1">
-        <v>963.251000</v>
+        <v>963.25099999999998</v>
       </c>
       <c r="X14" s="1">
-        <v>-90.746700</v>
+        <v>-90.746700000000004</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>84660.247887</v>
+        <v>84660.247887000005</v>
       </c>
       <c r="AA14" s="1">
-        <v>23.516736</v>
+        <v>23.516736000000002</v>
       </c>
       <c r="AB14" s="1">
-        <v>970.862000</v>
+        <v>970.86199999999997</v>
       </c>
       <c r="AC14" s="1">
-        <v>-80.952700</v>
+        <v>-80.952699999999993</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>84671.101840</v>
+        <v>84671.101840000003</v>
       </c>
       <c r="AF14" s="1">
-        <v>23.519751</v>
+        <v>23.519750999999999</v>
       </c>
       <c r="AG14" s="1">
-        <v>975.902000</v>
+        <v>975.90200000000004</v>
       </c>
       <c r="AH14" s="1">
-        <v>-80.366600</v>
+        <v>-80.366600000000005</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>84681.563987</v>
+        <v>84681.563987000001</v>
       </c>
       <c r="AK14" s="1">
-        <v>23.522657</v>
+        <v>23.522656999999999</v>
       </c>
       <c r="AL14" s="1">
-        <v>984.020000</v>
+        <v>984.02</v>
       </c>
       <c r="AM14" s="1">
-        <v>-87.835000</v>
+        <v>-87.834999999999994</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
         <v>84692.319206</v>
@@ -3685,859 +4101,859 @@
         <v>23.525644</v>
       </c>
       <c r="AQ14" s="1">
-        <v>993.214000</v>
+        <v>993.21400000000006</v>
       </c>
       <c r="AR14" s="1">
-        <v>-102.488000</v>
+        <v>-102.488</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>84703.765414</v>
+        <v>84703.765413999994</v>
       </c>
       <c r="AU14" s="1">
         <v>23.528824</v>
       </c>
       <c r="AV14" s="1">
-        <v>1004.600000</v>
+        <v>1004.6</v>
       </c>
       <c r="AW14" s="1">
-        <v>-123.815000</v>
+        <v>-123.815</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>84714.781528</v>
+        <v>84714.781528000007</v>
       </c>
       <c r="AZ14" s="1">
-        <v>23.531884</v>
+        <v>23.531884000000002</v>
       </c>
       <c r="BA14" s="1">
-        <v>1014.220000</v>
+        <v>1014.22</v>
       </c>
       <c r="BB14" s="1">
-        <v>-142.395000</v>
+        <v>-142.39500000000001</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>84725.429298</v>
+        <v>84725.429298000003</v>
       </c>
       <c r="BE14" s="1">
         <v>23.534841</v>
       </c>
       <c r="BF14" s="1">
-        <v>1059.510000</v>
+        <v>1059.51</v>
       </c>
       <c r="BG14" s="1">
-        <v>-226.652000</v>
+        <v>-226.65199999999999</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>84736.647163</v>
+        <v>84736.647163000001</v>
       </c>
       <c r="BJ14" s="1">
         <v>23.537958</v>
       </c>
       <c r="BK14" s="1">
-        <v>1139.030000</v>
+        <v>1139.03</v>
       </c>
       <c r="BL14" s="1">
-        <v>-361.470000</v>
+        <v>-361.47</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
         <v>84747.375665</v>
       </c>
       <c r="BO14" s="1">
-        <v>23.540938</v>
+        <v>23.540938000000001</v>
       </c>
       <c r="BP14" s="1">
-        <v>1270.250000</v>
+        <v>1270.25</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-569.101000</v>
+        <v>-569.101</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>84758.734013</v>
+        <v>84758.734012999994</v>
       </c>
       <c r="BT14" s="1">
         <v>23.544093</v>
       </c>
       <c r="BU14" s="1">
-        <v>1416.580000</v>
+        <v>1416.58</v>
       </c>
       <c r="BV14" s="1">
-        <v>-790.390000</v>
+        <v>-790.39</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>84769.548782</v>
+        <v>84769.548781999998</v>
       </c>
       <c r="BY14" s="1">
-        <v>23.547097</v>
+        <v>23.547097000000001</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1577.440000</v>
+        <v>1577.44</v>
       </c>
       <c r="CA14" s="1">
-        <v>-1021.030000</v>
+        <v>-1021.03</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>84781.673983</v>
+        <v>84781.673983000001</v>
       </c>
       <c r="CD14" s="1">
-        <v>23.550465</v>
+        <v>23.550464999999999</v>
       </c>
       <c r="CE14" s="1">
-        <v>1980.370000</v>
+        <v>1980.37</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1559.470000</v>
+        <v>-1559.47</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>84608.096036</v>
+        <v>84608.096036000003</v>
       </c>
       <c r="B15" s="1">
-        <v>23.502249</v>
+        <v>23.502248999999999</v>
       </c>
       <c r="C15" s="1">
-        <v>910.632000</v>
+        <v>910.63199999999995</v>
       </c>
       <c r="D15" s="1">
-        <v>-196.361000</v>
+        <v>-196.36099999999999</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>84618.522089</v>
+        <v>84618.522089000006</v>
       </c>
       <c r="G15" s="1">
-        <v>23.505145</v>
+        <v>23.505144999999999</v>
       </c>
       <c r="H15" s="1">
-        <v>927.408000</v>
+        <v>927.40800000000002</v>
       </c>
       <c r="I15" s="1">
-        <v>-166.204000</v>
+        <v>-166.20400000000001</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>84629.007896</v>
+        <v>84629.007895999996</v>
       </c>
       <c r="L15" s="1">
-        <v>23.508058</v>
+        <v>23.508057999999998</v>
       </c>
       <c r="M15" s="1">
-        <v>950.096000</v>
+        <v>950.096</v>
       </c>
       <c r="N15" s="1">
-        <v>-119.897000</v>
+        <v>-119.89700000000001</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>84639.563724</v>
+        <v>84639.563724000007</v>
       </c>
       <c r="Q15" s="1">
-        <v>23.510990</v>
+        <v>23.51099</v>
       </c>
       <c r="R15" s="1">
-        <v>956.669000</v>
+        <v>956.66899999999998</v>
       </c>
       <c r="S15" s="1">
-        <v>-104.526000</v>
+        <v>-104.526</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>84650.080428</v>
+        <v>84650.080428000001</v>
       </c>
       <c r="V15" s="1">
         <v>23.513911</v>
       </c>
       <c r="W15" s="1">
-        <v>963.417000</v>
+        <v>963.41700000000003</v>
       </c>
       <c r="X15" s="1">
-        <v>-90.708700</v>
+        <v>-90.708699999999993</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>84660.595087</v>
+        <v>84660.595086999994</v>
       </c>
       <c r="AA15" s="1">
-        <v>23.516832</v>
+        <v>23.516832000000001</v>
       </c>
       <c r="AB15" s="1">
-        <v>970.847000</v>
+        <v>970.84699999999998</v>
       </c>
       <c r="AC15" s="1">
-        <v>-80.979700</v>
+        <v>-80.979699999999994</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>84671.444081</v>
+        <v>84671.444080999994</v>
       </c>
       <c r="AF15" s="1">
-        <v>23.519846</v>
+        <v>23.519846000000001</v>
       </c>
       <c r="AG15" s="1">
-        <v>975.992000</v>
+        <v>975.99199999999996</v>
       </c>
       <c r="AH15" s="1">
-        <v>-80.381000</v>
+        <v>-80.381</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>84681.910658</v>
+        <v>84681.910657999993</v>
       </c>
       <c r="AK15" s="1">
-        <v>23.522753</v>
+        <v>23.522753000000002</v>
       </c>
       <c r="AL15" s="1">
-        <v>983.995000</v>
+        <v>983.995</v>
       </c>
       <c r="AM15" s="1">
-        <v>-87.810400</v>
+        <v>-87.810400000000001</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>84692.990820</v>
+        <v>84692.990820000006</v>
       </c>
       <c r="AP15" s="1">
         <v>23.525831</v>
       </c>
       <c r="AQ15" s="1">
-        <v>993.252000</v>
+        <v>993.25199999999995</v>
       </c>
       <c r="AR15" s="1">
-        <v>-102.499000</v>
+        <v>-102.499</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>84704.208805</v>
+        <v>84704.208805000002</v>
       </c>
       <c r="AU15" s="1">
-        <v>23.528947</v>
+        <v>23.528946999999999</v>
       </c>
       <c r="AV15" s="1">
-        <v>1004.600000</v>
+        <v>1004.6</v>
       </c>
       <c r="AW15" s="1">
-        <v>-123.813000</v>
+        <v>-123.813</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>84715.178326</v>
+        <v>84715.178325999994</v>
       </c>
       <c r="AZ15" s="1">
-        <v>23.531994</v>
+        <v>23.531994000000001</v>
       </c>
       <c r="BA15" s="1">
-        <v>1014.230000</v>
+        <v>1014.23</v>
       </c>
       <c r="BB15" s="1">
-        <v>-142.407000</v>
+        <v>-142.40700000000001</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>84725.793208</v>
+        <v>84725.793208000003</v>
       </c>
       <c r="BE15" s="1">
-        <v>23.534943</v>
+        <v>23.534942999999998</v>
       </c>
       <c r="BF15" s="1">
-        <v>1059.550000</v>
+        <v>1059.55</v>
       </c>
       <c r="BG15" s="1">
-        <v>-226.657000</v>
+        <v>-226.65700000000001</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>84737.020191</v>
+        <v>84737.020191000003</v>
       </c>
       <c r="BJ15" s="1">
-        <v>23.538061</v>
+        <v>23.538060999999999</v>
       </c>
       <c r="BK15" s="1">
-        <v>1139.070000</v>
+        <v>1139.07</v>
       </c>
       <c r="BL15" s="1">
-        <v>-361.472000</v>
+        <v>-361.47199999999998</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>84747.771963</v>
+        <v>84747.771963000007</v>
       </c>
       <c r="BO15" s="1">
         <v>23.541048</v>
       </c>
       <c r="BP15" s="1">
-        <v>1270.260000</v>
+        <v>1270.26</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-569.098000</v>
+        <v>-569.09799999999996</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>84759.157596</v>
+        <v>84759.157596000005</v>
       </c>
       <c r="BT15" s="1">
-        <v>23.544210</v>
+        <v>23.54421</v>
       </c>
       <c r="BU15" s="1">
-        <v>1416.590000</v>
+        <v>1416.59</v>
       </c>
       <c r="BV15" s="1">
-        <v>-790.345000</v>
+        <v>-790.34500000000003</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>84769.983774</v>
+        <v>84769.983773999993</v>
       </c>
       <c r="BY15" s="1">
-        <v>23.547218</v>
+        <v>23.547218000000001</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1577.380000</v>
+        <v>1577.38</v>
       </c>
       <c r="CA15" s="1">
-        <v>-1021.120000</v>
+        <v>-1021.12</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
         <v>84782.202718</v>
       </c>
       <c r="CD15" s="1">
-        <v>23.550612</v>
+        <v>23.550612000000001</v>
       </c>
       <c r="CE15" s="1">
-        <v>1979.180000</v>
+        <v>1979.18</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1560.570000</v>
+        <v>-1560.57</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>84608.773580</v>
+        <v>84608.773579999994</v>
       </c>
       <c r="B16" s="1">
         <v>23.502437</v>
       </c>
       <c r="C16" s="1">
-        <v>910.582000</v>
+        <v>910.58199999999999</v>
       </c>
       <c r="D16" s="1">
-        <v>-196.383000</v>
+        <v>-196.38300000000001</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>84619.215882</v>
+        <v>84619.215882000004</v>
       </c>
       <c r="G16" s="1">
-        <v>23.505338</v>
+        <v>23.505337999999998</v>
       </c>
       <c r="H16" s="1">
-        <v>927.806000</v>
+        <v>927.80600000000004</v>
       </c>
       <c r="I16" s="1">
-        <v>-167.175000</v>
+        <v>-167.17500000000001</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>84629.353117</v>
+        <v>84629.353117000006</v>
       </c>
       <c r="L16" s="1">
-        <v>23.508154</v>
+        <v>23.508154000000001</v>
       </c>
       <c r="M16" s="1">
-        <v>949.912000</v>
+        <v>949.91200000000003</v>
       </c>
       <c r="N16" s="1">
-        <v>-119.852000</v>
+        <v>-119.852</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>84639.911950</v>
+        <v>84639.911949999994</v>
       </c>
       <c r="Q16" s="1">
         <v>23.511087</v>
       </c>
       <c r="R16" s="1">
-        <v>956.706000</v>
+        <v>956.70600000000002</v>
       </c>
       <c r="S16" s="1">
-        <v>-104.504000</v>
+        <v>-104.504</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>84650.425116</v>
+        <v>84650.425115999999</v>
       </c>
       <c r="V16" s="1">
-        <v>23.514007</v>
+        <v>23.514006999999999</v>
       </c>
       <c r="W16" s="1">
-        <v>963.490000</v>
+        <v>963.49</v>
       </c>
       <c r="X16" s="1">
-        <v>-90.637700</v>
+        <v>-90.637699999999995</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>84660.942783</v>
+        <v>84660.942783000006</v>
       </c>
       <c r="AA16" s="1">
-        <v>23.516929</v>
+        <v>23.516929000000001</v>
       </c>
       <c r="AB16" s="1">
-        <v>970.856000</v>
+        <v>970.85599999999999</v>
       </c>
       <c r="AC16" s="1">
-        <v>-80.942500</v>
+        <v>-80.942499999999995</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>84672.105775</v>
+        <v>84672.105775000004</v>
       </c>
       <c r="AF16" s="1">
-        <v>23.520029</v>
+        <v>23.520029000000001</v>
       </c>
       <c r="AG16" s="1">
-        <v>975.949000</v>
+        <v>975.94899999999996</v>
       </c>
       <c r="AH16" s="1">
-        <v>-80.363400</v>
+        <v>-80.363399999999999</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>84682.583049</v>
+        <v>84682.583048999993</v>
       </c>
       <c r="AK16" s="1">
-        <v>23.522940</v>
+        <v>23.522939999999998</v>
       </c>
       <c r="AL16" s="1">
-        <v>983.995000</v>
+        <v>983.995</v>
       </c>
       <c r="AM16" s="1">
-        <v>-87.818700</v>
+        <v>-87.818700000000007</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>84693.398005</v>
+        <v>84693.398004999995</v>
       </c>
       <c r="AP16" s="1">
-        <v>23.525944</v>
+        <v>23.525943999999999</v>
       </c>
       <c r="AQ16" s="1">
-        <v>993.240000</v>
+        <v>993.24</v>
       </c>
       <c r="AR16" s="1">
-        <v>-102.500000</v>
+        <v>-102.5</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>84704.574852</v>
+        <v>84704.574852000005</v>
       </c>
       <c r="AU16" s="1">
-        <v>23.529049</v>
+        <v>23.529049000000001</v>
       </c>
       <c r="AV16" s="1">
-        <v>1004.600000</v>
+        <v>1004.6</v>
       </c>
       <c r="AW16" s="1">
-        <v>-123.825000</v>
+        <v>-123.825</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>84715.567718</v>
+        <v>84715.567718000006</v>
       </c>
       <c r="AZ16" s="1">
-        <v>23.532102</v>
+        <v>23.532101999999998</v>
       </c>
       <c r="BA16" s="1">
-        <v>1014.220000</v>
+        <v>1014.22</v>
       </c>
       <c r="BB16" s="1">
-        <v>-142.417000</v>
+        <v>-142.417</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>84726.153801</v>
+        <v>84726.153800999993</v>
       </c>
       <c r="BE16" s="1">
-        <v>23.535043</v>
+        <v>23.535043000000002</v>
       </c>
       <c r="BF16" s="1">
-        <v>1059.520000</v>
+        <v>1059.52</v>
       </c>
       <c r="BG16" s="1">
-        <v>-226.660000</v>
+        <v>-226.66</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>84737.443738</v>
+        <v>84737.443738000002</v>
       </c>
       <c r="BJ16" s="1">
         <v>23.538179</v>
       </c>
       <c r="BK16" s="1">
-        <v>1139.060000</v>
+        <v>1139.06</v>
       </c>
       <c r="BL16" s="1">
-        <v>-361.483000</v>
+        <v>-361.483</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>84748.194524</v>
+        <v>84748.194524000006</v>
       </c>
       <c r="BO16" s="1">
-        <v>23.541165</v>
+        <v>23.541164999999999</v>
       </c>
       <c r="BP16" s="1">
-        <v>1270.250000</v>
+        <v>1270.25</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-569.119000</v>
+        <v>-569.11900000000003</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>84759.575724</v>
+        <v>84759.575723999995</v>
       </c>
       <c r="BT16" s="1">
-        <v>23.544327</v>
+        <v>23.544326999999999</v>
       </c>
       <c r="BU16" s="1">
-        <v>1416.630000</v>
+        <v>1416.63</v>
       </c>
       <c r="BV16" s="1">
-        <v>-790.259000</v>
+        <v>-790.25900000000001</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>84770.389997</v>
+        <v>84770.389997000006</v>
       </c>
       <c r="BY16" s="1">
         <v>23.547331</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1577.300000</v>
+        <v>1577.3</v>
       </c>
       <c r="CA16" s="1">
-        <v>-1021.080000</v>
+        <v>-1021.08</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>84782.720045</v>
+        <v>84782.720044999995</v>
       </c>
       <c r="CD16" s="1">
         <v>23.550756</v>
       </c>
       <c r="CE16" s="1">
-        <v>1980.510000</v>
+        <v>1980.51</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1561.550000</v>
+        <v>-1561.55</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>84609.118290</v>
+        <v>84609.118289999999</v>
       </c>
       <c r="B17" s="1">
         <v>23.502533</v>
       </c>
       <c r="C17" s="1">
-        <v>910.572000</v>
+        <v>910.572</v>
       </c>
       <c r="D17" s="1">
-        <v>-196.511000</v>
+        <v>-196.511</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>84619.561558</v>
+        <v>84619.561558000001</v>
       </c>
       <c r="G17" s="1">
-        <v>23.505434</v>
+        <v>23.505434000000001</v>
       </c>
       <c r="H17" s="1">
-        <v>927.031000</v>
+        <v>927.03099999999995</v>
       </c>
       <c r="I17" s="1">
-        <v>-166.448000</v>
+        <v>-166.44800000000001</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
         <v>84629.703255</v>
       </c>
       <c r="L17" s="1">
-        <v>23.508251</v>
+        <v>23.508251000000001</v>
       </c>
       <c r="M17" s="1">
-        <v>949.987000</v>
+        <v>949.98699999999997</v>
       </c>
       <c r="N17" s="1">
-        <v>-119.934000</v>
+        <v>-119.934</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>84640.259113</v>
+        <v>84640.259112999993</v>
       </c>
       <c r="Q17" s="1">
-        <v>23.511183</v>
+        <v>23.511182999999999</v>
       </c>
       <c r="R17" s="1">
-        <v>956.681000</v>
+        <v>956.68100000000004</v>
       </c>
       <c r="S17" s="1">
-        <v>-104.555000</v>
+        <v>-104.55500000000001</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>84651.106620</v>
+        <v>84651.106620000006</v>
       </c>
       <c r="V17" s="1">
-        <v>23.514196</v>
+        <v>23.514195999999998</v>
       </c>
       <c r="W17" s="1">
-        <v>963.391000</v>
+        <v>963.39099999999996</v>
       </c>
       <c r="X17" s="1">
-        <v>-90.791000</v>
+        <v>-90.790999999999997</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>84661.623789</v>
+        <v>84661.623789000005</v>
       </c>
       <c r="AA17" s="1">
         <v>23.517118</v>
       </c>
       <c r="AB17" s="1">
-        <v>970.811000</v>
+        <v>970.81100000000004</v>
       </c>
       <c r="AC17" s="1">
-        <v>-80.980600</v>
+        <v>-80.980599999999995</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>84672.473279</v>
+        <v>84672.473278999998</v>
       </c>
       <c r="AF17" s="1">
-        <v>23.520131</v>
+        <v>23.520130999999999</v>
       </c>
       <c r="AG17" s="1">
-        <v>975.976000</v>
+        <v>975.976</v>
       </c>
       <c r="AH17" s="1">
-        <v>-80.373600</v>
+        <v>-80.373599999999996</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>84682.958705</v>
+        <v>84682.958704999997</v>
       </c>
       <c r="AK17" s="1">
-        <v>23.523044</v>
+        <v>23.523043999999999</v>
       </c>
       <c r="AL17" s="1">
-        <v>983.996000</v>
+        <v>983.99599999999998</v>
       </c>
       <c r="AM17" s="1">
-        <v>-87.812500</v>
+        <v>-87.8125</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>84693.782898</v>
+        <v>84693.782898000005</v>
       </c>
       <c r="AP17" s="1">
-        <v>23.526051</v>
+        <v>23.526050999999999</v>
       </c>
       <c r="AQ17" s="1">
-        <v>993.253000</v>
+        <v>993.25300000000004</v>
       </c>
       <c r="AR17" s="1">
-        <v>-102.513000</v>
+        <v>-102.51300000000001</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>84704.939412</v>
+        <v>84704.939412000007</v>
       </c>
       <c r="AU17" s="1">
-        <v>23.529150</v>
+        <v>23.529150000000001</v>
       </c>
       <c r="AV17" s="1">
-        <v>1004.610000</v>
+        <v>1004.61</v>
       </c>
       <c r="AW17" s="1">
-        <v>-123.817000</v>
+        <v>-123.81699999999999</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>84715.927322</v>
+        <v>84715.927322000003</v>
       </c>
       <c r="AZ17" s="1">
-        <v>23.532202</v>
+        <v>23.532202000000002</v>
       </c>
       <c r="BA17" s="1">
-        <v>1014.210000</v>
+        <v>1014.21</v>
       </c>
       <c r="BB17" s="1">
-        <v>-142.420000</v>
+        <v>-142.41999999999999</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>84726.570472</v>
+        <v>84726.570472000007</v>
       </c>
       <c r="BE17" s="1">
-        <v>23.535158</v>
+        <v>23.535157999999999</v>
       </c>
       <c r="BF17" s="1">
-        <v>1059.540000</v>
+        <v>1059.54</v>
       </c>
       <c r="BG17" s="1">
-        <v>-226.647000</v>
+        <v>-226.64699999999999</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>84737.767662</v>
+        <v>84737.767661999998</v>
       </c>
       <c r="BJ17" s="1">
         <v>23.538269</v>
       </c>
       <c r="BK17" s="1">
-        <v>1139.060000</v>
+        <v>1139.06</v>
       </c>
       <c r="BL17" s="1">
-        <v>-361.464000</v>
+        <v>-361.464</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>84748.592319</v>
+        <v>84748.592319000003</v>
       </c>
       <c r="BO17" s="1">
         <v>23.541276</v>
       </c>
       <c r="BP17" s="1">
-        <v>1270.290000</v>
+        <v>1270.29</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-569.084000</v>
+        <v>-569.08399999999995</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
         <v>84760.000795</v>
@@ -4546,392 +4962,392 @@
         <v>23.544445</v>
       </c>
       <c r="BU17" s="1">
-        <v>1416.680000</v>
+        <v>1416.68</v>
       </c>
       <c r="BV17" s="1">
-        <v>-790.218000</v>
+        <v>-790.21799999999996</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>84770.817053</v>
+        <v>84770.817053000006</v>
       </c>
       <c r="BY17" s="1">
         <v>23.547449</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1577.420000</v>
+        <v>1577.42</v>
       </c>
       <c r="CA17" s="1">
-        <v>-1021.170000</v>
+        <v>-1021.17</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>84783.237372</v>
+        <v>84783.237372000003</v>
       </c>
       <c r="CD17" s="1">
-        <v>23.550899</v>
+        <v>23.550899000000001</v>
       </c>
       <c r="CE17" s="1">
-        <v>1981.070000</v>
+        <v>1981.07</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1559.900000</v>
+        <v>-1559.9</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>84609.462513</v>
+        <v>84609.462513000006</v>
       </c>
       <c r="B18" s="1">
-        <v>23.502628</v>
+        <v>23.502628000000001</v>
       </c>
       <c r="C18" s="1">
-        <v>910.829000</v>
+        <v>910.82899999999995</v>
       </c>
       <c r="D18" s="1">
-        <v>-196.421000</v>
+        <v>-196.42099999999999</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>84619.906276</v>
+        <v>84619.906275999994</v>
       </c>
       <c r="G18" s="1">
-        <v>23.505530</v>
+        <v>23.50553</v>
       </c>
       <c r="H18" s="1">
-        <v>927.116000</v>
+        <v>927.11599999999999</v>
       </c>
       <c r="I18" s="1">
-        <v>-166.568000</v>
+        <v>-166.56800000000001</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>84630.381783</v>
+        <v>84630.381783000004</v>
       </c>
       <c r="L18" s="1">
-        <v>23.508439</v>
+        <v>23.508438999999999</v>
       </c>
       <c r="M18" s="1">
-        <v>950.052000</v>
+        <v>950.05200000000002</v>
       </c>
       <c r="N18" s="1">
-        <v>-119.795000</v>
+        <v>-119.795</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>84640.930696</v>
+        <v>84640.930695999996</v>
       </c>
       <c r="Q18" s="1">
-        <v>23.511370</v>
+        <v>23.511369999999999</v>
       </c>
       <c r="R18" s="1">
-        <v>956.747000</v>
+        <v>956.74699999999996</v>
       </c>
       <c r="S18" s="1">
-        <v>-104.521000</v>
+        <v>-104.521</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>84651.458817</v>
+        <v>84651.458817000006</v>
       </c>
       <c r="V18" s="1">
         <v>23.514294</v>
       </c>
       <c r="W18" s="1">
-        <v>963.210000</v>
+        <v>963.21</v>
       </c>
       <c r="X18" s="1">
-        <v>-90.577900</v>
+        <v>-90.5779</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>84661.993308</v>
+        <v>84661.993308000005</v>
       </c>
       <c r="AA18" s="1">
-        <v>23.517220</v>
+        <v>23.517219999999998</v>
       </c>
       <c r="AB18" s="1">
-        <v>970.829000</v>
+        <v>970.82899999999995</v>
       </c>
       <c r="AC18" s="1">
-        <v>-81.002100</v>
+        <v>-81.002099999999999</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>84672.817999</v>
+        <v>84672.817999000006</v>
       </c>
       <c r="AF18" s="1">
-        <v>23.520227</v>
+        <v>23.520226999999998</v>
       </c>
       <c r="AG18" s="1">
-        <v>975.954000</v>
+        <v>975.95399999999995</v>
       </c>
       <c r="AH18" s="1">
-        <v>-80.373500</v>
+        <v>-80.373500000000007</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>84683.305905</v>
+        <v>84683.305905000001</v>
       </c>
       <c r="AK18" s="1">
-        <v>23.523141</v>
+        <v>23.523140999999999</v>
       </c>
       <c r="AL18" s="1">
-        <v>984.000000</v>
+        <v>984</v>
       </c>
       <c r="AM18" s="1">
-        <v>-87.825100</v>
+        <v>-87.825100000000006</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>84694.142002</v>
+        <v>84694.142001999993</v>
       </c>
       <c r="AP18" s="1">
-        <v>23.526151</v>
+        <v>23.526150999999999</v>
       </c>
       <c r="AQ18" s="1">
-        <v>993.237000</v>
+        <v>993.23699999999997</v>
       </c>
       <c r="AR18" s="1">
-        <v>-102.497000</v>
+        <v>-102.497</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>84705.368453</v>
+        <v>84705.368453000003</v>
       </c>
       <c r="AU18" s="1">
-        <v>23.529269</v>
+        <v>23.529268999999999</v>
       </c>
       <c r="AV18" s="1">
-        <v>1004.600000</v>
+        <v>1004.6</v>
       </c>
       <c r="AW18" s="1">
-        <v>-123.820000</v>
+        <v>-123.82</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>84716.347141</v>
+        <v>84716.347141000006</v>
       </c>
       <c r="AZ18" s="1">
-        <v>23.532319</v>
+        <v>23.532319000000001</v>
       </c>
       <c r="BA18" s="1">
-        <v>1014.220000</v>
+        <v>1014.22</v>
       </c>
       <c r="BB18" s="1">
-        <v>-142.408000</v>
+        <v>-142.40799999999999</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>84726.877463</v>
+        <v>84726.877462999997</v>
       </c>
       <c r="BE18" s="1">
-        <v>23.535244</v>
+        <v>23.535243999999999</v>
       </c>
       <c r="BF18" s="1">
-        <v>1059.520000</v>
+        <v>1059.52</v>
       </c>
       <c r="BG18" s="1">
-        <v>-226.648000</v>
+        <v>-226.648</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>84738.173848</v>
+        <v>84738.173848000006</v>
       </c>
       <c r="BJ18" s="1">
-        <v>23.538382</v>
+        <v>23.538381999999999</v>
       </c>
       <c r="BK18" s="1">
-        <v>1139.060000</v>
+        <v>1139.06</v>
       </c>
       <c r="BL18" s="1">
-        <v>-361.497000</v>
+        <v>-361.49700000000001</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>84749.008987</v>
+        <v>84749.008986999994</v>
       </c>
       <c r="BO18" s="1">
-        <v>23.541391</v>
+        <v>23.541391000000001</v>
       </c>
       <c r="BP18" s="1">
-        <v>1270.230000</v>
+        <v>1270.23</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-569.148000</v>
+        <v>-569.14800000000002</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>84760.413498</v>
+        <v>84760.413497999994</v>
       </c>
       <c r="BT18" s="1">
         <v>23.544559</v>
       </c>
       <c r="BU18" s="1">
-        <v>1416.760000</v>
+        <v>1416.76</v>
       </c>
       <c r="BV18" s="1">
-        <v>-790.203000</v>
+        <v>-790.20299999999997</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>84771.234188</v>
+        <v>84771.234188000002</v>
       </c>
       <c r="BY18" s="1">
-        <v>23.547565</v>
+        <v>23.547564999999999</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1577.330000</v>
+        <v>1577.33</v>
       </c>
       <c r="CA18" s="1">
-        <v>-1021.080000</v>
+        <v>-1021.08</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>84783.756684</v>
+        <v>84783.756684000007</v>
       </c>
       <c r="CD18" s="1">
-        <v>23.551044</v>
+        <v>23.551044000000001</v>
       </c>
       <c r="CE18" s="1">
-        <v>1981.180000</v>
+        <v>1981.18</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1560.500000</v>
+        <v>-1560.5</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>84610.119218</v>
+        <v>84610.119218000007</v>
       </c>
       <c r="B19" s="1">
-        <v>23.502811</v>
+        <v>23.502811000000001</v>
       </c>
       <c r="C19" s="1">
-        <v>910.521000</v>
+        <v>910.52099999999996</v>
       </c>
       <c r="D19" s="1">
-        <v>-196.417000</v>
+        <v>-196.417</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>84620.570916</v>
+        <v>84620.570915999997</v>
       </c>
       <c r="G19" s="1">
-        <v>23.505714</v>
+        <v>23.505714000000001</v>
       </c>
       <c r="H19" s="1">
-        <v>927.583000</v>
+        <v>927.58299999999997</v>
       </c>
       <c r="I19" s="1">
-        <v>-166.832000</v>
+        <v>-166.83199999999999</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>84630.737910</v>
+        <v>84630.737909999996</v>
       </c>
       <c r="L19" s="1">
-        <v>23.508538</v>
+        <v>23.508538000000001</v>
       </c>
       <c r="M19" s="1">
-        <v>950.090000</v>
+        <v>950.09</v>
       </c>
       <c r="N19" s="1">
-        <v>-119.783000</v>
+        <v>-119.783</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>84641.304680</v>
+        <v>84641.304680000001</v>
       </c>
       <c r="Q19" s="1">
         <v>23.511474</v>
       </c>
       <c r="R19" s="1">
-        <v>956.714000</v>
+        <v>956.71400000000006</v>
       </c>
       <c r="S19" s="1">
-        <v>-104.541000</v>
+        <v>-104.541</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>84651.809946</v>
+        <v>84651.809945999994</v>
       </c>
       <c r="V19" s="1">
-        <v>23.514392</v>
+        <v>23.514392000000001</v>
       </c>
       <c r="W19" s="1">
-        <v>963.470000</v>
+        <v>963.47</v>
       </c>
       <c r="X19" s="1">
-        <v>-90.738700</v>
+        <v>-90.738699999999994</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>84662.336577</v>
+        <v>84662.336576999995</v>
       </c>
       <c r="AA19" s="1">
-        <v>23.517316</v>
+        <v>23.517316000000001</v>
       </c>
       <c r="AB19" s="1">
-        <v>970.869000</v>
+        <v>970.86900000000003</v>
       </c>
       <c r="AC19" s="1">
-        <v>-81.014100</v>
+        <v>-81.014099999999999</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
         <v>84673.169167</v>
@@ -4940,300 +5356,300 @@
         <v>23.520325</v>
       </c>
       <c r="AG19" s="1">
-        <v>975.974000</v>
+        <v>975.97400000000005</v>
       </c>
       <c r="AH19" s="1">
-        <v>-80.359300</v>
+        <v>-80.359300000000005</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>84683.722569</v>
+        <v>84683.722569000005</v>
       </c>
       <c r="AK19" s="1">
         <v>23.523256</v>
       </c>
       <c r="AL19" s="1">
-        <v>984.028000</v>
+        <v>984.02800000000002</v>
       </c>
       <c r="AM19" s="1">
-        <v>-87.816800</v>
+        <v>-87.816800000000001</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>84694.571079</v>
+        <v>84694.571079000001</v>
       </c>
       <c r="AP19" s="1">
-        <v>23.526270</v>
+        <v>23.52627</v>
       </c>
       <c r="AQ19" s="1">
-        <v>993.242000</v>
+        <v>993.24199999999996</v>
       </c>
       <c r="AR19" s="1">
-        <v>-102.495000</v>
+        <v>-102.495</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>84705.669058</v>
+        <v>84705.669057999999</v>
       </c>
       <c r="AU19" s="1">
         <v>23.529353</v>
       </c>
       <c r="AV19" s="1">
-        <v>1004.620000</v>
+        <v>1004.62</v>
       </c>
       <c r="AW19" s="1">
-        <v>-123.817000</v>
+        <v>-123.81699999999999</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>84716.643508</v>
+        <v>84716.643507999994</v>
       </c>
       <c r="AZ19" s="1">
         <v>23.532401</v>
       </c>
       <c r="BA19" s="1">
-        <v>1014.230000</v>
+        <v>1014.23</v>
       </c>
       <c r="BB19" s="1">
-        <v>-142.396000</v>
+        <v>-142.39599999999999</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>84727.237565</v>
+        <v>84727.237565000003</v>
       </c>
       <c r="BE19" s="1">
-        <v>23.535344</v>
+        <v>23.535343999999998</v>
       </c>
       <c r="BF19" s="1">
-        <v>1059.520000</v>
+        <v>1059.52</v>
       </c>
       <c r="BG19" s="1">
-        <v>-226.651000</v>
+        <v>-226.65100000000001</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>84738.547337</v>
+        <v>84738.547336999996</v>
       </c>
       <c r="BJ19" s="1">
-        <v>23.538485</v>
+        <v>23.538485000000001</v>
       </c>
       <c r="BK19" s="1">
-        <v>1139.070000</v>
+        <v>1139.07</v>
       </c>
       <c r="BL19" s="1">
-        <v>-361.488000</v>
+        <v>-361.488</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>84749.407737</v>
+        <v>84749.407737000001</v>
       </c>
       <c r="BO19" s="1">
-        <v>23.541502</v>
+        <v>23.541502000000001</v>
       </c>
       <c r="BP19" s="1">
-        <v>1270.240000</v>
+        <v>1270.24</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-569.098000</v>
+        <v>-569.09799999999996</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>84760.845001</v>
+        <v>84760.845000999994</v>
       </c>
       <c r="BT19" s="1">
-        <v>23.544679</v>
+        <v>23.544678999999999</v>
       </c>
       <c r="BU19" s="1">
-        <v>1416.790000</v>
+        <v>1416.79</v>
       </c>
       <c r="BV19" s="1">
-        <v>-790.210000</v>
+        <v>-790.21</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>84771.681083</v>
+        <v>84771.681083000003</v>
       </c>
       <c r="BY19" s="1">
-        <v>23.547689</v>
+        <v>23.547688999999998</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1577.320000</v>
+        <v>1577.32</v>
       </c>
       <c r="CA19" s="1">
-        <v>-1021.060000</v>
+        <v>-1021.06</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>84784.310221</v>
+        <v>84784.310221000007</v>
       </c>
       <c r="CD19" s="1">
-        <v>23.551197</v>
+        <v>23.551196999999998</v>
       </c>
       <c r="CE19" s="1">
-        <v>1980.080000</v>
+        <v>1980.08</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1561.410000</v>
+        <v>-1561.41</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>84610.484273</v>
+        <v>84610.484272999995</v>
       </c>
       <c r="B20" s="1">
-        <v>23.502912</v>
+        <v>23.502911999999998</v>
       </c>
       <c r="C20" s="1">
-        <v>910.606000</v>
+        <v>910.60599999999999</v>
       </c>
       <c r="D20" s="1">
-        <v>-196.516000</v>
+        <v>-196.51599999999999</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>84620.937956</v>
+        <v>84620.937955999994</v>
       </c>
       <c r="G20" s="1">
-        <v>23.505816</v>
+        <v>23.505815999999999</v>
       </c>
       <c r="H20" s="1">
-        <v>927.538000</v>
+        <v>927.53800000000001</v>
       </c>
       <c r="I20" s="1">
-        <v>-167.015000</v>
+        <v>-167.01499999999999</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>84631.081637</v>
+        <v>84631.081636999996</v>
       </c>
       <c r="L20" s="1">
-        <v>23.508634</v>
+        <v>23.508634000000001</v>
       </c>
       <c r="M20" s="1">
-        <v>949.913000</v>
+        <v>949.91300000000001</v>
       </c>
       <c r="N20" s="1">
-        <v>-119.786000</v>
+        <v>-119.786</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>84641.654855</v>
+        <v>84641.654855000001</v>
       </c>
       <c r="Q20" s="1">
         <v>23.511571</v>
       </c>
       <c r="R20" s="1">
-        <v>956.671000</v>
+        <v>956.67100000000005</v>
       </c>
       <c r="S20" s="1">
-        <v>-104.602000</v>
+        <v>-104.602</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>84652.150201</v>
+        <v>84652.150200999997</v>
       </c>
       <c r="V20" s="1">
-        <v>23.514486</v>
+        <v>23.514486000000002</v>
       </c>
       <c r="W20" s="1">
-        <v>963.316000</v>
+        <v>963.31600000000003</v>
       </c>
       <c r="X20" s="1">
-        <v>-90.683200</v>
+        <v>-90.683199999999999</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>84662.687244</v>
+        <v>84662.687244000001</v>
       </c>
       <c r="AA20" s="1">
-        <v>23.517413</v>
+        <v>23.517413000000001</v>
       </c>
       <c r="AB20" s="1">
-        <v>970.828000</v>
+        <v>970.82799999999997</v>
       </c>
       <c r="AC20" s="1">
-        <v>-80.966400</v>
+        <v>-80.966399999999993</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>84673.594274</v>
+        <v>84673.594274000003</v>
       </c>
       <c r="AF20" s="1">
         <v>23.520443</v>
       </c>
       <c r="AG20" s="1">
-        <v>975.937000</v>
+        <v>975.93700000000001</v>
       </c>
       <c r="AH20" s="1">
-        <v>-80.350300</v>
+        <v>-80.350300000000004</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>84684.003812</v>
+        <v>84684.003811999995</v>
       </c>
       <c r="AK20" s="1">
-        <v>23.523334</v>
+        <v>23.523333999999998</v>
       </c>
       <c r="AL20" s="1">
-        <v>984.033000</v>
+        <v>984.03300000000002</v>
       </c>
       <c r="AM20" s="1">
-        <v>-87.838400</v>
+        <v>-87.838399999999993</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>84694.862721</v>
+        <v>84694.862720999998</v>
       </c>
       <c r="AP20" s="1">
-        <v>23.526351</v>
+        <v>23.526350999999998</v>
       </c>
       <c r="AQ20" s="1">
-        <v>993.227000</v>
+        <v>993.22699999999998</v>
       </c>
       <c r="AR20" s="1">
-        <v>-102.487000</v>
+        <v>-102.48699999999999</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
         <v>84706.031208</v>
@@ -5242,43 +5658,43 @@
         <v>23.529453</v>
       </c>
       <c r="AV20" s="1">
-        <v>1004.600000</v>
+        <v>1004.6</v>
       </c>
       <c r="AW20" s="1">
-        <v>-123.825000</v>
+        <v>-123.825</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>84717.005092</v>
+        <v>84717.005092000007</v>
       </c>
       <c r="AZ20" s="1">
         <v>23.532501</v>
       </c>
       <c r="BA20" s="1">
-        <v>1014.210000</v>
+        <v>1014.21</v>
       </c>
       <c r="BB20" s="1">
-        <v>-142.421000</v>
+        <v>-142.42099999999999</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>84727.598646</v>
+        <v>84727.598645999999</v>
       </c>
       <c r="BE20" s="1">
-        <v>23.535444</v>
+        <v>23.535443999999998</v>
       </c>
       <c r="BF20" s="1">
-        <v>1059.530000</v>
+        <v>1059.53</v>
       </c>
       <c r="BG20" s="1">
-        <v>-226.644000</v>
+        <v>-226.64400000000001</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
         <v>84739.299281</v>
@@ -5287,225 +5703,225 @@
         <v>23.538694</v>
       </c>
       <c r="BK20" s="1">
-        <v>1139.070000</v>
+        <v>1139.07</v>
       </c>
       <c r="BL20" s="1">
-        <v>-361.491000</v>
+        <v>-361.49099999999999</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>84749.829336</v>
+        <v>84749.829335999995</v>
       </c>
       <c r="BO20" s="1">
-        <v>23.541619</v>
+        <v>23.541619000000001</v>
       </c>
       <c r="BP20" s="1">
-        <v>1270.300000</v>
+        <v>1270.3</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-569.139000</v>
+        <v>-569.13900000000001</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>84761.272042</v>
+        <v>84761.272041999997</v>
       </c>
       <c r="BT20" s="1">
         <v>23.544798</v>
       </c>
       <c r="BU20" s="1">
-        <v>1416.780000</v>
+        <v>1416.78</v>
       </c>
       <c r="BV20" s="1">
-        <v>-790.104000</v>
+        <v>-790.10400000000004</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>84772.102683</v>
+        <v>84772.102683000005</v>
       </c>
       <c r="BY20" s="1">
-        <v>23.547806</v>
+        <v>23.547806000000001</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1577.290000</v>
+        <v>1577.29</v>
       </c>
       <c r="CA20" s="1">
-        <v>-1021.170000</v>
+        <v>-1021.17</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>84784.836970</v>
+        <v>84784.836970000004</v>
       </c>
       <c r="CD20" s="1">
         <v>23.551344</v>
       </c>
       <c r="CE20" s="1">
-        <v>1980.650000</v>
+        <v>1980.65</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1559.960000</v>
+        <v>-1559.96</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>84610.829488</v>
+        <v>84610.829488000003</v>
       </c>
       <c r="B21" s="1">
-        <v>23.503008</v>
+        <v>23.503008000000001</v>
       </c>
       <c r="C21" s="1">
-        <v>910.668000</v>
+        <v>910.66800000000001</v>
       </c>
       <c r="D21" s="1">
-        <v>-196.414000</v>
+        <v>-196.41399999999999</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>84621.282674</v>
+        <v>84621.282674000002</v>
       </c>
       <c r="G21" s="1">
-        <v>23.505912</v>
+        <v>23.505911999999999</v>
       </c>
       <c r="H21" s="1">
-        <v>927.541000</v>
+        <v>927.54100000000005</v>
       </c>
       <c r="I21" s="1">
-        <v>-166.560000</v>
+        <v>-166.56</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>84631.428837</v>
+        <v>84631.428836999999</v>
       </c>
       <c r="L21" s="1">
-        <v>23.508730</v>
+        <v>23.50873</v>
       </c>
       <c r="M21" s="1">
-        <v>949.838000</v>
+        <v>949.83799999999997</v>
       </c>
       <c r="N21" s="1">
-        <v>-119.787000</v>
+        <v>-119.78700000000001</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>84642.005031</v>
+        <v>84642.005030999993</v>
       </c>
       <c r="Q21" s="1">
         <v>23.511668</v>
       </c>
       <c r="R21" s="1">
-        <v>956.693000</v>
+        <v>956.69299999999998</v>
       </c>
       <c r="S21" s="1">
-        <v>-104.568000</v>
+        <v>-104.568</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>84652.585785</v>
+        <v>84652.585785000003</v>
       </c>
       <c r="V21" s="1">
-        <v>23.514607</v>
+        <v>23.514607000000002</v>
       </c>
       <c r="W21" s="1">
-        <v>963.462000</v>
+        <v>963.46199999999999</v>
       </c>
       <c r="X21" s="1">
-        <v>-90.777800</v>
+        <v>-90.777799999999999</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>84663.111818</v>
+        <v>84663.111818000005</v>
       </c>
       <c r="AA21" s="1">
-        <v>23.517531</v>
+        <v>23.517531000000002</v>
       </c>
       <c r="AB21" s="1">
-        <v>970.898000</v>
+        <v>970.89800000000002</v>
       </c>
       <c r="AC21" s="1">
-        <v>-80.958500</v>
+        <v>-80.958500000000001</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>84673.872989</v>
+        <v>84673.872988999996</v>
       </c>
       <c r="AF21" s="1">
-        <v>23.520520</v>
+        <v>23.520520000000001</v>
       </c>
       <c r="AG21" s="1">
-        <v>975.950000</v>
+        <v>975.95</v>
       </c>
       <c r="AH21" s="1">
-        <v>-80.392200</v>
+        <v>-80.392200000000003</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>84684.351471</v>
+        <v>84684.351471000002</v>
       </c>
       <c r="AK21" s="1">
-        <v>23.523431</v>
+        <v>23.523430999999999</v>
       </c>
       <c r="AL21" s="1">
-        <v>984.019000</v>
+        <v>984.01900000000001</v>
       </c>
       <c r="AM21" s="1">
-        <v>-87.833200</v>
+        <v>-87.833200000000005</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>84695.221792</v>
+        <v>84695.221791999997</v>
       </c>
       <c r="AP21" s="1">
-        <v>23.526450</v>
+        <v>23.526450000000001</v>
       </c>
       <c r="AQ21" s="1">
-        <v>993.235000</v>
+        <v>993.23500000000001</v>
       </c>
       <c r="AR21" s="1">
-        <v>-102.505000</v>
+        <v>-102.505</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>84706.399138</v>
+        <v>84706.399137999993</v>
       </c>
       <c r="AU21" s="1">
-        <v>23.529555</v>
+        <v>23.529554999999998</v>
       </c>
       <c r="AV21" s="1">
-        <v>1004.600000</v>
+        <v>1004.6</v>
       </c>
       <c r="AW21" s="1">
-        <v>-123.827000</v>
+        <v>-123.827</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
         <v>84717.364728</v>
@@ -5514,1390 +5930,1391 @@
         <v>23.532601</v>
       </c>
       <c r="BA21" s="1">
-        <v>1014.220000</v>
+        <v>1014.22</v>
       </c>
       <c r="BB21" s="1">
-        <v>-142.429000</v>
+        <v>-142.429</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
         <v>84728.319829</v>
       </c>
       <c r="BE21" s="1">
-        <v>23.535644</v>
+        <v>23.535644000000001</v>
       </c>
       <c r="BF21" s="1">
-        <v>1059.520000</v>
+        <v>1059.52</v>
       </c>
       <c r="BG21" s="1">
-        <v>-226.651000</v>
+        <v>-226.65100000000001</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>84739.675239</v>
+        <v>84739.675239000004</v>
       </c>
       <c r="BJ21" s="1">
-        <v>23.538799</v>
+        <v>23.538799000000001</v>
       </c>
       <c r="BK21" s="1">
-        <v>1139.050000</v>
+        <v>1139.05</v>
       </c>
       <c r="BL21" s="1">
-        <v>-361.480000</v>
+        <v>-361.48</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>84750.225640</v>
+        <v>84750.225640000004</v>
       </c>
       <c r="BO21" s="1">
         <v>23.541729</v>
       </c>
       <c r="BP21" s="1">
-        <v>1270.270000</v>
+        <v>1270.27</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-569.118000</v>
+        <v>-569.11800000000005</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>84761.685244</v>
+        <v>84761.685243999993</v>
       </c>
       <c r="BT21" s="1">
-        <v>23.544913</v>
+        <v>23.544913000000001</v>
       </c>
       <c r="BU21" s="1">
-        <v>1416.910000</v>
+        <v>1416.91</v>
       </c>
       <c r="BV21" s="1">
-        <v>-790.160000</v>
+        <v>-790.16</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>84772.523290</v>
+        <v>84772.523289999997</v>
       </c>
       <c r="BY21" s="1">
-        <v>23.547923</v>
+        <v>23.547923000000001</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1577.290000</v>
+        <v>1577.29</v>
       </c>
       <c r="CA21" s="1">
-        <v>-1021.180000</v>
+        <v>-1021.18</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>84785.661849</v>
+        <v>84785.661848999996</v>
       </c>
       <c r="CD21" s="1">
-        <v>23.551573</v>
+        <v>23.551573000000001</v>
       </c>
       <c r="CE21" s="1">
-        <v>1978.940000</v>
+        <v>1978.94</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1559.650000</v>
+        <v>-1559.65</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>84611.173712</v>
+        <v>84611.173712000003</v>
       </c>
       <c r="B22" s="1">
         <v>23.503104</v>
       </c>
       <c r="C22" s="1">
-        <v>910.700000</v>
+        <v>910.7</v>
       </c>
       <c r="D22" s="1">
-        <v>-196.382000</v>
+        <v>-196.38200000000001</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>84621.630407</v>
+        <v>84621.630407000004</v>
       </c>
       <c r="G22" s="1">
-        <v>23.506008</v>
+        <v>23.506008000000001</v>
       </c>
       <c r="H22" s="1">
-        <v>927.732000</v>
+        <v>927.73199999999997</v>
       </c>
       <c r="I22" s="1">
-        <v>-166.857000</v>
+        <v>-166.857</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>84631.859860</v>
+        <v>84631.859859999997</v>
       </c>
       <c r="L22" s="1">
-        <v>23.508850</v>
+        <v>23.508849999999999</v>
       </c>
       <c r="M22" s="1">
-        <v>949.968000</v>
+        <v>949.96799999999996</v>
       </c>
       <c r="N22" s="1">
-        <v>-119.996000</v>
+        <v>-119.996</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>84642.445974</v>
+        <v>84642.445974000002</v>
       </c>
       <c r="Q22" s="1">
-        <v>23.511791</v>
+        <v>23.511790999999999</v>
       </c>
       <c r="R22" s="1">
-        <v>956.703000</v>
+        <v>956.70299999999997</v>
       </c>
       <c r="S22" s="1">
-        <v>-104.529000</v>
+        <v>-104.529</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>84652.849561</v>
+        <v>84652.849560999995</v>
       </c>
       <c r="V22" s="1">
-        <v>23.514680</v>
+        <v>23.514679999999998</v>
       </c>
       <c r="W22" s="1">
-        <v>963.441000</v>
+        <v>963.44100000000003</v>
       </c>
       <c r="X22" s="1">
-        <v>-90.753300</v>
+        <v>-90.753299999999996</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>84663.393516</v>
+        <v>84663.393515999996</v>
       </c>
       <c r="AA22" s="1">
         <v>23.517609</v>
       </c>
       <c r="AB22" s="1">
-        <v>970.821000</v>
+        <v>970.82100000000003</v>
       </c>
       <c r="AC22" s="1">
-        <v>-81.016600</v>
+        <v>-81.016599999999997</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>84674.215229</v>
+        <v>84674.215228999994</v>
       </c>
       <c r="AF22" s="1">
-        <v>23.520615</v>
+        <v>23.520614999999999</v>
       </c>
       <c r="AG22" s="1">
-        <v>975.959000</v>
+        <v>975.95899999999995</v>
       </c>
       <c r="AH22" s="1">
-        <v>-80.394200</v>
+        <v>-80.394199999999998</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
         <v>84684.701684</v>
       </c>
       <c r="AK22" s="1">
-        <v>23.523528</v>
+        <v>23.523527999999999</v>
       </c>
       <c r="AL22" s="1">
-        <v>983.998000</v>
+        <v>983.99800000000005</v>
       </c>
       <c r="AM22" s="1">
-        <v>-87.813100</v>
+        <v>-87.813100000000006</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>84695.584400</v>
+        <v>84695.584400000007</v>
       </c>
       <c r="AP22" s="1">
-        <v>23.526551</v>
+        <v>23.526551000000001</v>
       </c>
       <c r="AQ22" s="1">
-        <v>993.238000</v>
+        <v>993.23800000000006</v>
       </c>
       <c r="AR22" s="1">
-        <v>-102.493000</v>
+        <v>-102.49299999999999</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>84707.127265</v>
+        <v>84707.127265000003</v>
       </c>
       <c r="AU22" s="1">
-        <v>23.529758</v>
+        <v>23.529758000000001</v>
       </c>
       <c r="AV22" s="1">
-        <v>1004.620000</v>
+        <v>1004.62</v>
       </c>
       <c r="AW22" s="1">
-        <v>-123.812000</v>
+        <v>-123.812</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>84718.092820</v>
+        <v>84718.092820000005</v>
       </c>
       <c r="AZ22" s="1">
-        <v>23.532804</v>
+        <v>23.532803999999999</v>
       </c>
       <c r="BA22" s="1">
-        <v>1014.230000</v>
+        <v>1014.23</v>
       </c>
       <c r="BB22" s="1">
-        <v>-142.428000</v>
+        <v>-142.428</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>84728.679924</v>
+        <v>84728.679923999996</v>
       </c>
       <c r="BE22" s="1">
-        <v>23.535744</v>
+        <v>23.535744000000001</v>
       </c>
       <c r="BF22" s="1">
-        <v>1059.530000</v>
+        <v>1059.53</v>
       </c>
       <c r="BG22" s="1">
-        <v>-226.664000</v>
+        <v>-226.66399999999999</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>84740.048727</v>
+        <v>84740.048727000001</v>
       </c>
       <c r="BJ22" s="1">
         <v>23.538902</v>
       </c>
       <c r="BK22" s="1">
-        <v>1139.050000</v>
+        <v>1139.05</v>
       </c>
       <c r="BL22" s="1">
-        <v>-361.481000</v>
+        <v>-361.48099999999999</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>84750.646743</v>
+        <v>84750.646743000005</v>
       </c>
       <c r="BO22" s="1">
         <v>23.541846</v>
       </c>
       <c r="BP22" s="1">
-        <v>1270.260000</v>
+        <v>1270.26</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-569.106000</v>
+        <v>-569.10599999999999</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>84762.430696</v>
+        <v>84762.430695999996</v>
       </c>
       <c r="BT22" s="1">
-        <v>23.545120</v>
+        <v>23.545120000000001</v>
       </c>
       <c r="BU22" s="1">
-        <v>1416.920000</v>
+        <v>1416.92</v>
       </c>
       <c r="BV22" s="1">
-        <v>-790.152000</v>
+        <v>-790.15200000000004</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>84772.975032</v>
+        <v>84772.975032000002</v>
       </c>
       <c r="BY22" s="1">
-        <v>23.548049</v>
+        <v>23.548048999999999</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1577.360000</v>
+        <v>1577.36</v>
       </c>
       <c r="CA22" s="1">
-        <v>-1021.120000</v>
+        <v>-1021.12</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>84785.873113</v>
+        <v>84785.873112999994</v>
       </c>
       <c r="CD22" s="1">
         <v>23.551631</v>
       </c>
       <c r="CE22" s="1">
-        <v>1978.860000</v>
+        <v>1978.86</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1561.490000</v>
+        <v>-1561.49</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>84611.597296</v>
+        <v>84611.597296000007</v>
       </c>
       <c r="B23" s="1">
         <v>23.503221</v>
       </c>
       <c r="C23" s="1">
-        <v>910.419000</v>
+        <v>910.41899999999998</v>
       </c>
       <c r="D23" s="1">
-        <v>-196.549000</v>
+        <v>-196.54900000000001</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>84622.065361</v>
+        <v>84622.065361000001</v>
       </c>
       <c r="G23" s="1">
-        <v>23.506129</v>
+        <v>23.506129000000001</v>
       </c>
       <c r="H23" s="1">
-        <v>927.610000</v>
+        <v>927.61</v>
       </c>
       <c r="I23" s="1">
-        <v>-166.883000</v>
+        <v>-166.88300000000001</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>84632.139109</v>
+        <v>84632.139108999996</v>
       </c>
       <c r="L23" s="1">
-        <v>23.508928</v>
+        <v>23.508928000000001</v>
       </c>
       <c r="M23" s="1">
-        <v>949.848000</v>
+        <v>949.84799999999996</v>
       </c>
       <c r="N23" s="1">
-        <v>-119.856000</v>
+        <v>-119.85599999999999</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>84642.705878</v>
+        <v>84642.705877999993</v>
       </c>
       <c r="Q23" s="1">
-        <v>23.511863</v>
+        <v>23.511863000000002</v>
       </c>
       <c r="R23" s="1">
-        <v>956.682000</v>
+        <v>956.68200000000002</v>
       </c>
       <c r="S23" s="1">
-        <v>-104.543000</v>
+        <v>-104.54300000000001</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>84653.194282</v>
+        <v>84653.194281999997</v>
       </c>
       <c r="V23" s="1">
-        <v>23.514776</v>
+        <v>23.514776000000001</v>
       </c>
       <c r="W23" s="1">
-        <v>963.484000</v>
+        <v>963.48400000000004</v>
       </c>
       <c r="X23" s="1">
-        <v>-90.810500</v>
+        <v>-90.810500000000005</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>84663.809659</v>
+        <v>84663.809659000006</v>
       </c>
       <c r="AA23" s="1">
-        <v>23.517725</v>
+        <v>23.517724999999999</v>
       </c>
       <c r="AB23" s="1">
-        <v>970.868000</v>
+        <v>970.86800000000005</v>
       </c>
       <c r="AC23" s="1">
-        <v>-81.038000</v>
+        <v>-81.037999999999997</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>84674.557974</v>
+        <v>84674.557973999996</v>
       </c>
       <c r="AF23" s="1">
-        <v>23.520711</v>
+        <v>23.520710999999999</v>
       </c>
       <c r="AG23" s="1">
-        <v>975.977000</v>
+        <v>975.97699999999998</v>
       </c>
       <c r="AH23" s="1">
-        <v>-80.416800</v>
+        <v>-80.416799999999995</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>84685.397533</v>
+        <v>84685.397532999996</v>
       </c>
       <c r="AK23" s="1">
-        <v>23.523722</v>
+        <v>23.523721999999999</v>
       </c>
       <c r="AL23" s="1">
-        <v>983.999000</v>
+        <v>983.99900000000002</v>
       </c>
       <c r="AM23" s="1">
-        <v>-87.832700</v>
+        <v>-87.832700000000003</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>84696.303567</v>
+        <v>84696.303566999995</v>
       </c>
       <c r="AP23" s="1">
-        <v>23.526751</v>
+        <v>23.526751000000001</v>
       </c>
       <c r="AQ23" s="1">
-        <v>993.232000</v>
+        <v>993.23199999999997</v>
       </c>
       <c r="AR23" s="1">
-        <v>-102.498000</v>
+        <v>-102.498</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>84707.491332</v>
+        <v>84707.491332000005</v>
       </c>
       <c r="AU23" s="1">
-        <v>23.529859</v>
+        <v>23.529858999999998</v>
       </c>
       <c r="AV23" s="1">
-        <v>1004.610000</v>
+        <v>1004.61</v>
       </c>
       <c r="AW23" s="1">
-        <v>-123.797000</v>
+        <v>-123.797</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>84718.436050</v>
+        <v>84718.436050000004</v>
       </c>
       <c r="AZ23" s="1">
         <v>23.532899</v>
       </c>
       <c r="BA23" s="1">
-        <v>1014.210000</v>
+        <v>1014.21</v>
       </c>
       <c r="BB23" s="1">
-        <v>-142.430000</v>
+        <v>-142.43</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>84729.040517</v>
+        <v>84729.040517000001</v>
       </c>
       <c r="BE23" s="1">
-        <v>23.535845</v>
+        <v>23.535844999999998</v>
       </c>
       <c r="BF23" s="1">
-        <v>1059.540000</v>
+        <v>1059.54</v>
       </c>
       <c r="BG23" s="1">
-        <v>-226.660000</v>
+        <v>-226.66</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>84740.742628</v>
+        <v>84740.742628000007</v>
       </c>
       <c r="BJ23" s="1">
         <v>23.539095</v>
       </c>
       <c r="BK23" s="1">
-        <v>1139.090000</v>
+        <v>1139.0899999999999</v>
       </c>
       <c r="BL23" s="1">
-        <v>-361.487000</v>
+        <v>-361.48700000000002</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>84751.358502</v>
+        <v>84751.358502000003</v>
       </c>
       <c r="BO23" s="1">
-        <v>23.542044</v>
+        <v>23.542044000000001</v>
       </c>
       <c r="BP23" s="1">
-        <v>1270.250000</v>
+        <v>1270.25</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-569.162000</v>
+        <v>-569.16200000000003</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>84762.545767</v>
+        <v>84762.545767000003</v>
       </c>
       <c r="BT23" s="1">
-        <v>23.545152</v>
+        <v>23.545152000000002</v>
       </c>
       <c r="BU23" s="1">
-        <v>1417.050000</v>
+        <v>1417.05</v>
       </c>
       <c r="BV23" s="1">
-        <v>-790.154000</v>
+        <v>-790.154</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>84773.405177</v>
+        <v>84773.405176999993</v>
       </c>
       <c r="BY23" s="1">
         <v>23.548168</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1577.420000</v>
+        <v>1577.42</v>
       </c>
       <c r="CA23" s="1">
-        <v>-1021.090000</v>
+        <v>-1021.09</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>84786.394408</v>
+        <v>84786.394407999993</v>
       </c>
       <c r="CD23" s="1">
         <v>23.551776</v>
       </c>
       <c r="CE23" s="1">
-        <v>1980.840000</v>
+        <v>1980.84</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1561.230000</v>
+        <v>-1561.23</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>84611.871584</v>
+        <v>84611.871583999993</v>
       </c>
       <c r="B24" s="1">
-        <v>23.503298</v>
+        <v>23.503298000000001</v>
       </c>
       <c r="C24" s="1">
-        <v>910.669000</v>
+        <v>910.66899999999998</v>
       </c>
       <c r="D24" s="1">
-        <v>-196.467000</v>
+        <v>-196.46700000000001</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>84622.317366</v>
+        <v>84622.317366000003</v>
       </c>
       <c r="G24" s="1">
-        <v>23.506199</v>
+        <v>23.506198999999999</v>
       </c>
       <c r="H24" s="1">
-        <v>927.499000</v>
+        <v>927.49900000000002</v>
       </c>
       <c r="I24" s="1">
-        <v>-166.798000</v>
+        <v>-166.798</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>84632.488291</v>
+        <v>84632.488291000001</v>
       </c>
       <c r="L24" s="1">
-        <v>23.509025</v>
+        <v>23.509025000000001</v>
       </c>
       <c r="M24" s="1">
-        <v>950.014000</v>
+        <v>950.01400000000001</v>
       </c>
       <c r="N24" s="1">
-        <v>-119.831000</v>
+        <v>-119.831</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>84643.054070</v>
+        <v>84643.054069999998</v>
       </c>
       <c r="Q24" s="1">
-        <v>23.511959</v>
+        <v>23.511959000000001</v>
       </c>
       <c r="R24" s="1">
-        <v>956.696000</v>
+        <v>956.69600000000003</v>
       </c>
       <c r="S24" s="1">
-        <v>-104.521000</v>
+        <v>-104.521</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>84653.537530</v>
+        <v>84653.537530000001</v>
       </c>
       <c r="V24" s="1">
         <v>23.514872</v>
       </c>
       <c r="W24" s="1">
-        <v>963.356000</v>
+        <v>963.35599999999999</v>
       </c>
       <c r="X24" s="1">
-        <v>-90.740300</v>
+        <v>-90.740300000000005</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>84664.282843</v>
+        <v>84664.282842999994</v>
       </c>
       <c r="AA24" s="1">
-        <v>23.517856</v>
+        <v>23.517855999999998</v>
       </c>
       <c r="AB24" s="1">
-        <v>970.859000</v>
+        <v>970.85900000000004</v>
       </c>
       <c r="AC24" s="1">
-        <v>-80.987900</v>
+        <v>-80.987899999999996</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>84675.242443</v>
+        <v>84675.242442999996</v>
       </c>
       <c r="AF24" s="1">
-        <v>23.520901</v>
+        <v>23.520900999999999</v>
       </c>
       <c r="AG24" s="1">
-        <v>975.970000</v>
+        <v>975.97</v>
       </c>
       <c r="AH24" s="1">
-        <v>-80.368400</v>
+        <v>-80.368399999999994</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>84685.747213</v>
+        <v>84685.747212999995</v>
       </c>
       <c r="AK24" s="1">
         <v>23.523819</v>
       </c>
       <c r="AL24" s="1">
-        <v>983.999000</v>
+        <v>983.99900000000002</v>
       </c>
       <c r="AM24" s="1">
-        <v>-87.819900</v>
+        <v>-87.819900000000004</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>84696.664159</v>
+        <v>84696.664159000007</v>
       </c>
       <c r="AP24" s="1">
-        <v>23.526851</v>
+        <v>23.526851000000001</v>
       </c>
       <c r="AQ24" s="1">
-        <v>993.221000</v>
+        <v>993.221</v>
       </c>
       <c r="AR24" s="1">
-        <v>-102.514000</v>
+        <v>-102.514</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>84707.856384</v>
+        <v>84707.856383999999</v>
       </c>
       <c r="AU24" s="1">
-        <v>23.529960</v>
+        <v>23.529959999999999</v>
       </c>
       <c r="AV24" s="1">
-        <v>1004.600000</v>
+        <v>1004.6</v>
       </c>
       <c r="AW24" s="1">
-        <v>-123.825000</v>
+        <v>-123.825</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>84718.796641</v>
+        <v>84718.796640999994</v>
       </c>
       <c r="AZ24" s="1">
         <v>23.532999</v>
       </c>
       <c r="BA24" s="1">
-        <v>1014.220000</v>
+        <v>1014.22</v>
       </c>
       <c r="BB24" s="1">
-        <v>-142.414000</v>
+        <v>-142.41399999999999</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>84729.715572</v>
+        <v>84729.715572000001</v>
       </c>
       <c r="BE24" s="1">
-        <v>23.536032</v>
+        <v>23.536031999999999</v>
       </c>
       <c r="BF24" s="1">
-        <v>1059.540000</v>
+        <v>1059.54</v>
       </c>
       <c r="BG24" s="1">
-        <v>-226.654000</v>
+        <v>-226.654</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>84741.173652</v>
+        <v>84741.173651999998</v>
       </c>
       <c r="BJ24" s="1">
-        <v>23.539215</v>
+        <v>23.539214999999999</v>
       </c>
       <c r="BK24" s="1">
-        <v>1139.060000</v>
+        <v>1139.06</v>
       </c>
       <c r="BL24" s="1">
-        <v>-361.485000</v>
+        <v>-361.48500000000001</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>84751.482006</v>
+        <v>84751.482006000006</v>
       </c>
       <c r="BO24" s="1">
         <v>23.542078</v>
       </c>
       <c r="BP24" s="1">
-        <v>1270.220000</v>
+        <v>1270.22</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-569.093000</v>
+        <v>-569.09299999999996</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>84762.984728</v>
+        <v>84762.984727999996</v>
       </c>
       <c r="BT24" s="1">
-        <v>23.545274</v>
+        <v>23.545273999999999</v>
       </c>
       <c r="BU24" s="1">
-        <v>1417.060000</v>
+        <v>1417.06</v>
       </c>
       <c r="BV24" s="1">
-        <v>-790.106000</v>
+        <v>-790.10599999999999</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>84773.827769</v>
+        <v>84773.827768999996</v>
       </c>
       <c r="BY24" s="1">
         <v>23.548285</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1577.410000</v>
+        <v>1577.41</v>
       </c>
       <c r="CA24" s="1">
-        <v>-1021.180000</v>
+        <v>-1021.18</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>84786.908264</v>
+        <v>84786.908263999998</v>
       </c>
       <c r="CD24" s="1">
-        <v>23.551919</v>
+        <v>23.551919000000002</v>
       </c>
       <c r="CE24" s="1">
-        <v>1980.530000</v>
+        <v>1980.53</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1559.740000</v>
+        <v>-1559.74</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>84612.212335</v>
+        <v>84612.212335000004</v>
       </c>
       <c r="B25" s="1">
-        <v>23.503392</v>
+        <v>23.503392000000002</v>
       </c>
       <c r="C25" s="1">
-        <v>910.640000</v>
+        <v>910.64</v>
       </c>
       <c r="D25" s="1">
-        <v>-196.430000</v>
+        <v>-196.43</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>84622.664033</v>
+        <v>84622.664032999994</v>
       </c>
       <c r="G25" s="1">
-        <v>23.506296</v>
+        <v>23.506295999999999</v>
       </c>
       <c r="H25" s="1">
-        <v>927.725000</v>
+        <v>927.72500000000002</v>
       </c>
       <c r="I25" s="1">
-        <v>-166.731000</v>
+        <v>-166.73099999999999</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>84632.831523</v>
+        <v>84632.831523000001</v>
       </c>
       <c r="L25" s="1">
-        <v>23.509120</v>
+        <v>23.509119999999999</v>
       </c>
       <c r="M25" s="1">
-        <v>949.989000</v>
+        <v>949.98900000000003</v>
       </c>
       <c r="N25" s="1">
-        <v>-119.897000</v>
+        <v>-119.89700000000001</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>84643.403253</v>
+        <v>84643.403252999997</v>
       </c>
       <c r="Q25" s="1">
-        <v>23.512056</v>
+        <v>23.512056000000001</v>
       </c>
       <c r="R25" s="1">
-        <v>956.716000</v>
+        <v>956.71600000000001</v>
       </c>
       <c r="S25" s="1">
-        <v>-104.560000</v>
+        <v>-104.56</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>84654.224503</v>
+        <v>84654.224503000005</v>
       </c>
       <c r="V25" s="1">
         <v>23.515062</v>
       </c>
       <c r="W25" s="1">
-        <v>963.257000</v>
+        <v>963.25699999999995</v>
       </c>
       <c r="X25" s="1">
-        <v>-90.596700</v>
+        <v>-90.596699999999998</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>84665.149354</v>
+        <v>84665.149353999994</v>
       </c>
       <c r="AA25" s="1">
-        <v>23.518097</v>
+        <v>23.518097000000001</v>
       </c>
       <c r="AB25" s="1">
-        <v>970.821000</v>
+        <v>970.82100000000003</v>
       </c>
       <c r="AC25" s="1">
-        <v>-80.996200</v>
+        <v>-80.996200000000002</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>84675.590634</v>
+        <v>84675.590633999993</v>
       </c>
       <c r="AF25" s="1">
-        <v>23.520997</v>
+        <v>23.520997000000001</v>
       </c>
       <c r="AG25" s="1">
-        <v>975.952000</v>
+        <v>975.952</v>
       </c>
       <c r="AH25" s="1">
-        <v>-80.381100</v>
+        <v>-80.381100000000004</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>84686.097389</v>
+        <v>84686.097389000002</v>
       </c>
       <c r="AK25" s="1">
         <v>23.523916</v>
       </c>
       <c r="AL25" s="1">
-        <v>984.004000</v>
+        <v>984.00400000000002</v>
       </c>
       <c r="AM25" s="1">
-        <v>-87.840800</v>
+        <v>-87.840800000000002</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>84697.024254</v>
+        <v>84697.024254000004</v>
       </c>
       <c r="AP25" s="1">
         <v>23.526951</v>
       </c>
       <c r="AQ25" s="1">
-        <v>993.240000</v>
+        <v>993.24</v>
       </c>
       <c r="AR25" s="1">
-        <v>-102.499000</v>
+        <v>-102.499</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>84708.537919</v>
+        <v>84708.537918999995</v>
       </c>
       <c r="AU25" s="1">
-        <v>23.530149</v>
+        <v>23.530149000000002</v>
       </c>
       <c r="AV25" s="1">
-        <v>1004.600000</v>
+        <v>1004.6</v>
       </c>
       <c r="AW25" s="1">
-        <v>-123.817000</v>
+        <v>-123.81699999999999</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>84719.237585</v>
+        <v>84719.237584999995</v>
       </c>
       <c r="AZ25" s="1">
-        <v>23.533122</v>
+        <v>23.533121999999999</v>
       </c>
       <c r="BA25" s="1">
-        <v>1014.220000</v>
+        <v>1014.22</v>
       </c>
       <c r="BB25" s="1">
-        <v>-142.416000</v>
+        <v>-142.416</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>84730.154567</v>
+        <v>84730.154567000005</v>
       </c>
       <c r="BE25" s="1">
         <v>23.536154</v>
       </c>
       <c r="BF25" s="1">
-        <v>1059.530000</v>
+        <v>1059.53</v>
       </c>
       <c r="BG25" s="1">
-        <v>-226.657000</v>
+        <v>-226.65700000000001</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>84741.551107</v>
+        <v>84741.551107000007</v>
       </c>
       <c r="BJ25" s="1">
-        <v>23.539320</v>
+        <v>23.53932</v>
       </c>
       <c r="BK25" s="1">
-        <v>1139.070000</v>
+        <v>1139.07</v>
       </c>
       <c r="BL25" s="1">
-        <v>-361.488000</v>
+        <v>-361.488</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>84751.893695</v>
+        <v>84751.893695000006</v>
       </c>
       <c r="BO25" s="1">
-        <v>23.542193</v>
+        <v>23.542193000000001</v>
       </c>
       <c r="BP25" s="1">
-        <v>1270.250000</v>
+        <v>1270.25</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-569.152000</v>
+        <v>-569.15200000000004</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>84763.396407</v>
+        <v>84763.396406999993</v>
       </c>
       <c r="BT25" s="1">
-        <v>23.545388</v>
+        <v>23.545387999999999</v>
       </c>
       <c r="BU25" s="1">
-        <v>1417.070000</v>
+        <v>1417.07</v>
       </c>
       <c r="BV25" s="1">
-        <v>-790.164000</v>
+        <v>-790.16399999999999</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>84774.255817</v>
+        <v>84774.255816999997</v>
       </c>
       <c r="BY25" s="1">
-        <v>23.548404</v>
+        <v>23.548404000000001</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1577.370000</v>
+        <v>1577.37</v>
       </c>
       <c r="CA25" s="1">
-        <v>-1021.140000</v>
+        <v>-1021.14</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>84787.423634</v>
+        <v>84787.423634000006</v>
       </c>
       <c r="CD25" s="1">
-        <v>23.552062</v>
+        <v>23.552061999999999</v>
       </c>
       <c r="CE25" s="1">
-        <v>1979.080000</v>
+        <v>1979.08</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1560.300000</v>
+        <v>-1560.3</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>84612.554574</v>
+        <v>84612.554573999994</v>
       </c>
       <c r="B26" s="1">
         <v>23.503487</v>
       </c>
       <c r="C26" s="1">
-        <v>910.631000</v>
+        <v>910.63099999999997</v>
       </c>
       <c r="D26" s="1">
-        <v>-196.484000</v>
+        <v>-196.48400000000001</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>84623.011235</v>
+        <v>84623.011234999998</v>
       </c>
       <c r="G26" s="1">
-        <v>23.506392</v>
+        <v>23.506392000000002</v>
       </c>
       <c r="H26" s="1">
-        <v>927.613000</v>
+        <v>927.61300000000006</v>
       </c>
       <c r="I26" s="1">
-        <v>-166.751000</v>
+        <v>-166.751</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>84633.528440</v>
+        <v>84633.528439999995</v>
       </c>
       <c r="L26" s="1">
-        <v>23.509313</v>
+        <v>23.509312999999999</v>
       </c>
       <c r="M26" s="1">
-        <v>949.961000</v>
+        <v>949.96100000000001</v>
       </c>
       <c r="N26" s="1">
-        <v>-119.822000</v>
+        <v>-119.822</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>84644.099140</v>
+        <v>84644.099140000006</v>
       </c>
       <c r="Q26" s="1">
-        <v>23.512250</v>
+        <v>23.512250000000002</v>
       </c>
       <c r="R26" s="1">
-        <v>956.673000</v>
+        <v>956.673</v>
       </c>
       <c r="S26" s="1">
-        <v>-104.533000</v>
+        <v>-104.533</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>84654.568199</v>
+        <v>84654.568199000001</v>
       </c>
       <c r="V26" s="1">
         <v>23.515158</v>
       </c>
       <c r="W26" s="1">
-        <v>963.417000</v>
+        <v>963.41700000000003</v>
       </c>
       <c r="X26" s="1">
-        <v>-90.712900</v>
+        <v>-90.712900000000005</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>84665.487165</v>
+        <v>84665.487164999999</v>
       </c>
       <c r="AA26" s="1">
-        <v>23.518191</v>
+        <v>23.518191000000002</v>
       </c>
       <c r="AB26" s="1">
-        <v>970.859000</v>
+        <v>970.85900000000004</v>
       </c>
       <c r="AC26" s="1">
-        <v>-81.061000</v>
+        <v>-81.061000000000007</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>84675.933679</v>
+        <v>84675.933678999994</v>
       </c>
       <c r="AF26" s="1">
         <v>23.521093</v>
       </c>
       <c r="AG26" s="1">
-        <v>975.978000</v>
+        <v>975.97799999999995</v>
       </c>
       <c r="AH26" s="1">
-        <v>-80.386200</v>
+        <v>-80.386200000000002</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>84686.758091</v>
+        <v>84686.758090999996</v>
       </c>
       <c r="AK26" s="1">
         <v>23.524099</v>
       </c>
       <c r="AL26" s="1">
-        <v>984.003000</v>
+        <v>984.00300000000004</v>
       </c>
       <c r="AM26" s="1">
-        <v>-87.825700</v>
+        <v>-87.825699999999998</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>84697.700340</v>
+        <v>84697.700339999996</v>
       </c>
       <c r="AP26" s="1">
-        <v>23.527139</v>
+        <v>23.527138999999998</v>
       </c>
       <c r="AQ26" s="1">
-        <v>993.241000</v>
+        <v>993.24099999999999</v>
       </c>
       <c r="AR26" s="1">
-        <v>-102.491000</v>
+        <v>-102.491</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>84708.944606</v>
+        <v>84708.944606000005</v>
       </c>
       <c r="AU26" s="1">
         <v>23.530262</v>
       </c>
       <c r="AV26" s="1">
-        <v>1004.620000</v>
+        <v>1004.62</v>
       </c>
       <c r="AW26" s="1">
-        <v>-123.789000</v>
+        <v>-123.789</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>84719.514354</v>
+        <v>84719.514353999999</v>
       </c>
       <c r="AZ26" s="1">
-        <v>23.533198</v>
+        <v>23.533197999999999</v>
       </c>
       <c r="BA26" s="1">
-        <v>1014.230000</v>
+        <v>1014.23</v>
       </c>
       <c r="BB26" s="1">
-        <v>-142.405000</v>
+        <v>-142.405</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>84730.516610</v>
+        <v>84730.516610000006</v>
       </c>
       <c r="BE26" s="1">
-        <v>23.536255</v>
+        <v>23.536255000000001</v>
       </c>
       <c r="BF26" s="1">
-        <v>1059.500000</v>
+        <v>1059.5</v>
       </c>
       <c r="BG26" s="1">
-        <v>-226.650000</v>
+        <v>-226.65</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>84741.925091</v>
+        <v>84741.925090999997</v>
       </c>
       <c r="BJ26" s="1">
         <v>23.539424</v>
       </c>
       <c r="BK26" s="1">
-        <v>1139.070000</v>
+        <v>1139.07</v>
       </c>
       <c r="BL26" s="1">
-        <v>-361.471000</v>
+        <v>-361.471</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>84752.289493</v>
+        <v>84752.289493000004</v>
       </c>
       <c r="BO26" s="1">
         <v>23.542303</v>
       </c>
       <c r="BP26" s="1">
-        <v>1270.290000</v>
+        <v>1270.29</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-569.137000</v>
+        <v>-569.13699999999994</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>84763.825447</v>
+        <v>84763.825446999996</v>
       </c>
       <c r="BT26" s="1">
-        <v>23.545507</v>
+        <v>23.545507000000001</v>
       </c>
       <c r="BU26" s="1">
-        <v>1417.170000</v>
+        <v>1417.17</v>
       </c>
       <c r="BV26" s="1">
-        <v>-790.118000</v>
+        <v>-790.11800000000005</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>84774.681415</v>
+        <v>84774.681414999999</v>
       </c>
       <c r="BY26" s="1">
-        <v>23.548523</v>
+        <v>23.548522999999999</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1577.310000</v>
+        <v>1577.31</v>
       </c>
       <c r="CA26" s="1">
-        <v>-1021.130000</v>
+        <v>-1021.13</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>84787.946390</v>
+        <v>84787.946389999997</v>
       </c>
       <c r="CD26" s="1">
-        <v>23.552207</v>
+        <v>23.552206999999999</v>
       </c>
       <c r="CE26" s="1">
-        <v>1979.880000</v>
+        <v>1979.88</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1561.370000</v>
+        <v>-1561.37</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>